--- a/MidiAnySync/midianysync_bom.xlsx
+++ b/MidiAnySync/midianysync_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/_home/_schemes/_Midi/MidiThru/MidiAnySync/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiAnySync/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB88E4-E8D4-9E41-8F9A-4F4EE29C9A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9D9EC-29B4-4F4F-8A66-19D779A8B4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{BFF4FDEE-40B4-5B4F-A303-76B9208D6481}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{BFF4FDEE-40B4-5B4F-A303-76B9208D6481}"/>
   </bookViews>
   <sheets>
     <sheet name="midianysync" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="210">
   <si>
     <t>D</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>JP1</t>
-  </si>
-  <si>
-    <t>Pin_Headers:Pin_Header_Straight_1x03_Pitch2.54mm</t>
   </si>
   <si>
     <t>Dual jumper, normally closed</t>
@@ -1004,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI241"/>
+  <dimension ref="A1:AI240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,10 +1052,10 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -1072,10 +1069,10 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1083,7 +1080,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1092,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1117,7 +1114,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1157,7 +1154,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1171,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -1199,24 +1196,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1225,15 +1222,15 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1242,41 +1239,38 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,13 +1278,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1298,16 +1295,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1315,36 +1312,42 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" t="s">
+        <v>92</v>
+      </c>
+      <c r="X19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
@@ -1364,10 +1367,10 @@
         <v>28</v>
       </c>
       <c r="W20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X20" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
@@ -1386,11 +1389,8 @@
       <c r="V21" t="s">
         <v>28</v>
       </c>
-      <c r="W21" t="s">
-        <v>95</v>
-      </c>
-      <c r="X21" t="s">
-        <v>32</v>
+      <c r="Y21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -1409,8 +1409,14 @@
       <c r="V22" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" t="s">
-        <v>98</v>
+      <c r="Z22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
@@ -1433,10 +1439,10 @@
         <v>8</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -1459,10 +1465,10 @@
         <v>8</v>
       </c>
       <c r="AA24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
@@ -1485,10 +1491,10 @@
         <v>8</v>
       </c>
       <c r="AA25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
@@ -1511,36 +1517,33 @@
         <v>8</v>
       </c>
       <c r="AA26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q27" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="R27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA27">
-        <v>5</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="W27" t="s">
+        <v>92</v>
+      </c>
+      <c r="X27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
@@ -1560,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="W28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X28" t="s">
         <v>26</v>
@@ -1582,11 +1585,8 @@
       <c r="V29" t="s">
         <v>8</v>
       </c>
-      <c r="W29" t="s">
-        <v>95</v>
-      </c>
-      <c r="X29" t="s">
-        <v>26</v>
+      <c r="Y29" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
@@ -1605,8 +1605,14 @@
       <c r="V30" t="s">
         <v>8</v>
       </c>
-      <c r="Y30" t="s">
-        <v>99</v>
+      <c r="Z30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
@@ -1629,10 +1635,10 @@
         <v>8</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
@@ -1640,25 +1646,22 @@
         <v>11</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U32" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="V32" t="s">
         <v>8</v>
       </c>
-      <c r="Z32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA32">
-        <v>2</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>96</v>
+      <c r="W32" t="s">
+        <v>92</v>
+      </c>
+      <c r="X32" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="17:28" x14ac:dyDescent="0.2">
@@ -1678,10 +1681,10 @@
         <v>8</v>
       </c>
       <c r="W33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X33" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="17:28" x14ac:dyDescent="0.2">
@@ -1700,11 +1703,8 @@
       <c r="V34" t="s">
         <v>8</v>
       </c>
-      <c r="W34" t="s">
-        <v>95</v>
-      </c>
-      <c r="X34" t="s">
-        <v>52</v>
+      <c r="Y34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="17:28" x14ac:dyDescent="0.2">
@@ -1723,8 +1723,14 @@
       <c r="V35" t="s">
         <v>8</v>
       </c>
-      <c r="Y35" t="s">
-        <v>101</v>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="17:28" x14ac:dyDescent="0.2">
@@ -1744,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="17:28" x14ac:dyDescent="0.2">
@@ -1758,25 +1764,22 @@
         <v>11</v>
       </c>
       <c r="R37" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U37" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="V37" t="s">
         <v>8</v>
       </c>
-      <c r="Z37">
-        <v>2</v>
-      </c>
-      <c r="AA37">
-        <v>2</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>96</v>
+      <c r="W37" t="s">
+        <v>92</v>
+      </c>
+      <c r="X37" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="17:28" x14ac:dyDescent="0.2">
@@ -1796,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="W38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X38" t="s">
         <v>0</v>
@@ -1818,11 +1821,8 @@
       <c r="V39" t="s">
         <v>8</v>
       </c>
-      <c r="W39" t="s">
-        <v>95</v>
-      </c>
-      <c r="X39" t="s">
-        <v>0</v>
+      <c r="Y39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="17:28" x14ac:dyDescent="0.2">
@@ -1901,8 +1901,14 @@
       <c r="V43" t="s">
         <v>8</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>105</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="17:28" x14ac:dyDescent="0.2">
@@ -1925,10 +1931,10 @@
         <v>106</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="17:28" x14ac:dyDescent="0.2">
@@ -1936,25 +1942,22 @@
         <v>11</v>
       </c>
       <c r="R45" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U45" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="V45" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="W45" t="s">
+        <v>92</v>
+      </c>
+      <c r="X45" t="s">
         <v>107</v>
-      </c>
-      <c r="AA45">
-        <v>2</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="46" spans="17:28" x14ac:dyDescent="0.2">
@@ -1962,22 +1965,22 @@
         <v>11</v>
       </c>
       <c r="R46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S46">
         <v>7</v>
       </c>
       <c r="U46" t="s">
+        <v>69</v>
+      </c>
+      <c r="V46" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" t="s">
+        <v>94</v>
+      </c>
+      <c r="X46" t="s">
         <v>70</v>
-      </c>
-      <c r="V46" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" t="s">
-        <v>93</v>
-      </c>
-      <c r="X46" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47" spans="17:28" x14ac:dyDescent="0.2">
@@ -1985,22 +1988,25 @@
         <v>11</v>
       </c>
       <c r="R47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S47">
         <v>7</v>
       </c>
       <c r="U47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V47" t="s">
         <v>8</v>
       </c>
-      <c r="W47" t="s">
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
         <v>95</v>
-      </c>
-      <c r="X47" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48" spans="17:28" x14ac:dyDescent="0.2">
@@ -2008,25 +2014,25 @@
         <v>11</v>
       </c>
       <c r="R48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S48">
         <v>7</v>
       </c>
       <c r="U48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V48" t="s">
         <v>8</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="17:28" x14ac:dyDescent="0.2">
@@ -2034,25 +2040,25 @@
         <v>11</v>
       </c>
       <c r="R49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S49">
         <v>7</v>
       </c>
       <c r="U49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V49" t="s">
         <v>8</v>
       </c>
       <c r="Z49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="17:28" x14ac:dyDescent="0.2">
@@ -2060,25 +2066,22 @@
         <v>11</v>
       </c>
       <c r="R50" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="S50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U50" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="V50" t="s">
         <v>8</v>
       </c>
-      <c r="Z50">
-        <v>3</v>
-      </c>
-      <c r="AA50">
-        <v>3</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>96</v>
+      <c r="W50" t="s">
+        <v>92</v>
+      </c>
+      <c r="X50" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="17:28" x14ac:dyDescent="0.2">
@@ -2098,10 +2101,10 @@
         <v>8</v>
       </c>
       <c r="W51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X51" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="17:28" x14ac:dyDescent="0.2">
@@ -2120,11 +2123,8 @@
       <c r="V52" t="s">
         <v>8</v>
       </c>
-      <c r="W52" t="s">
-        <v>95</v>
-      </c>
-      <c r="X52" t="s">
-        <v>22</v>
+      <c r="Y52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="17:28" x14ac:dyDescent="0.2">
@@ -2183,8 +2183,14 @@
       <c r="V55" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" t="s">
-        <v>111</v>
+      <c r="Z55" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="17:28" x14ac:dyDescent="0.2">
@@ -2207,10 +2213,10 @@
         <v>106</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="17:28" x14ac:dyDescent="0.2">
@@ -2218,25 +2224,22 @@
         <v>11</v>
       </c>
       <c r="R57" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="S57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U57" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="V57" t="s">
         <v>8</v>
       </c>
-      <c r="Z57" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA57">
-        <v>2</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>96</v>
+      <c r="W57" t="s">
+        <v>92</v>
+      </c>
+      <c r="X57" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="17:28" x14ac:dyDescent="0.2">
@@ -2256,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="W58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X58" t="s">
         <v>12</v>
@@ -2278,11 +2281,8 @@
       <c r="V59" t="s">
         <v>8</v>
       </c>
-      <c r="W59" t="s">
-        <v>95</v>
-      </c>
-      <c r="X59" t="s">
-        <v>12</v>
+      <c r="Y59" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="17:28" x14ac:dyDescent="0.2">
@@ -2301,8 +2301,14 @@
       <c r="V60" t="s">
         <v>8</v>
       </c>
-      <c r="Y60" t="s">
-        <v>112</v>
+      <c r="Z60" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="17:28" x14ac:dyDescent="0.2">
@@ -2325,36 +2331,36 @@
         <v>8</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S62">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="T62" t="s">
+        <v>112</v>
       </c>
       <c r="U62" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V62" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA62">
         <v>2</v>
       </c>
-      <c r="AB62" t="s">
-        <v>96</v>
+      <c r="W62" t="s">
+        <v>92</v>
+      </c>
+      <c r="X62" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="17:28" x14ac:dyDescent="0.2">
@@ -2368,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="T63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U63" t="s">
         <v>4</v>
@@ -2377,10 +2383,10 @@
         <v>2</v>
       </c>
       <c r="W63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X63" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="17:28" x14ac:dyDescent="0.2">
@@ -2394,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="T64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U64" t="s">
         <v>4</v>
@@ -2402,11 +2408,8 @@
       <c r="V64" t="s">
         <v>2</v>
       </c>
-      <c r="W64" t="s">
-        <v>95</v>
-      </c>
-      <c r="X64" t="s">
-        <v>6</v>
+      <c r="Y64" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="17:28" x14ac:dyDescent="0.2">
@@ -2420,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="T65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U65" t="s">
         <v>4</v>
@@ -2443,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="T66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U66" t="s">
         <v>4</v>
@@ -2451,8 +2454,14 @@
       <c r="V66" t="s">
         <v>2</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>115</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="17:28" x14ac:dyDescent="0.2">
@@ -2466,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="T67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U67" t="s">
         <v>4</v>
@@ -2475,13 +2484,13 @@
         <v>2</v>
       </c>
       <c r="Z67" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB67" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="17:28" x14ac:dyDescent="0.2">
@@ -2495,7 +2504,7 @@
         <v>10</v>
       </c>
       <c r="T68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U68" t="s">
         <v>4</v>
@@ -2504,13 +2513,13 @@
         <v>2</v>
       </c>
       <c r="Z68" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AA68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="17:28" x14ac:dyDescent="0.2">
@@ -2524,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="T69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U69" t="s">
         <v>4</v>
@@ -2533,13 +2542,13 @@
         <v>2</v>
       </c>
       <c r="Z69" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="AA69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB69" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="17:28" x14ac:dyDescent="0.2">
@@ -2553,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="T70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U70" t="s">
         <v>4</v>
@@ -2562,13 +2571,13 @@
         <v>2</v>
       </c>
       <c r="Z70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB70" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="17:28" x14ac:dyDescent="0.2">
@@ -2582,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="T71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U71" t="s">
         <v>4</v>
@@ -2594,10 +2603,10 @@
         <v>118</v>
       </c>
       <c r="AA71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="17:28" x14ac:dyDescent="0.2">
@@ -2611,7 +2620,7 @@
         <v>10</v>
       </c>
       <c r="T72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U72" t="s">
         <v>4</v>
@@ -2623,10 +2632,10 @@
         <v>119</v>
       </c>
       <c r="AA72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="17:28" x14ac:dyDescent="0.2">
@@ -2640,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="T73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U73" t="s">
         <v>4</v>
@@ -2652,39 +2661,36 @@
         <v>120</v>
       </c>
       <c r="AA73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q74" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="R74" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="S74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T74" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="U74" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="V74" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA74">
-        <v>8</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>96</v>
+        <v>42</v>
+      </c>
+      <c r="W74" t="s">
+        <v>92</v>
+      </c>
+      <c r="X74" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="17:28" x14ac:dyDescent="0.2">
@@ -2692,7 +2698,7 @@
         <v>44</v>
       </c>
       <c r="R75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S75">
         <v>11</v>
@@ -2701,16 +2707,16 @@
         <v>45</v>
       </c>
       <c r="U75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V75" t="s">
         <v>42</v>
       </c>
       <c r="W75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X75" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="17:28" x14ac:dyDescent="0.2">
@@ -2718,7 +2724,7 @@
         <v>44</v>
       </c>
       <c r="R76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S76">
         <v>11</v>
@@ -2727,16 +2733,13 @@
         <v>45</v>
       </c>
       <c r="U76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V76" t="s">
         <v>42</v>
       </c>
-      <c r="W76" t="s">
-        <v>95</v>
-      </c>
-      <c r="X76" t="s">
-        <v>122</v>
+      <c r="Y76" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="17:28" x14ac:dyDescent="0.2">
@@ -2744,7 +2747,7 @@
         <v>44</v>
       </c>
       <c r="R77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S77">
         <v>11</v>
@@ -2753,7 +2756,7 @@
         <v>45</v>
       </c>
       <c r="U77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V77" t="s">
         <v>42</v>
@@ -2767,7 +2770,7 @@
         <v>44</v>
       </c>
       <c r="R78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S78">
         <v>11</v>
@@ -2776,13 +2779,19 @@
         <v>45</v>
       </c>
       <c r="U78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V78" t="s">
         <v>42</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>125</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="17:28" x14ac:dyDescent="0.2">
@@ -2790,7 +2799,7 @@
         <v>44</v>
       </c>
       <c r="R79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S79">
         <v>11</v>
@@ -2799,19 +2808,19 @@
         <v>45</v>
       </c>
       <c r="U79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V79" t="s">
         <v>42</v>
       </c>
       <c r="Z79" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA79">
+        <v>2</v>
+      </c>
+      <c r="AB79" t="s">
         <v>126</v>
-      </c>
-      <c r="AA79">
-        <v>1</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="80" spans="17:28" x14ac:dyDescent="0.2">
@@ -2819,7 +2828,7 @@
         <v>44</v>
       </c>
       <c r="R80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S80">
         <v>11</v>
@@ -2828,7 +2837,7 @@
         <v>45</v>
       </c>
       <c r="U80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V80" t="s">
         <v>42</v>
@@ -2837,10 +2846,10 @@
         <v>128</v>
       </c>
       <c r="AA80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="17:28" x14ac:dyDescent="0.2">
@@ -2848,7 +2857,7 @@
         <v>44</v>
       </c>
       <c r="R81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S81">
         <v>11</v>
@@ -2857,7 +2866,7 @@
         <v>45</v>
       </c>
       <c r="U81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V81" t="s">
         <v>42</v>
@@ -2866,10 +2875,10 @@
         <v>129</v>
       </c>
       <c r="AA81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB81" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="17:28" x14ac:dyDescent="0.2">
@@ -2877,7 +2886,7 @@
         <v>44</v>
       </c>
       <c r="R82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S82">
         <v>11</v>
@@ -2886,19 +2895,19 @@
         <v>45</v>
       </c>
       <c r="U82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V82" t="s">
         <v>42</v>
       </c>
       <c r="Z82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="17:28" x14ac:dyDescent="0.2">
@@ -2906,7 +2915,7 @@
         <v>44</v>
       </c>
       <c r="R83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S83">
         <v>11</v>
@@ -2915,19 +2924,19 @@
         <v>45</v>
       </c>
       <c r="U83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V83" t="s">
         <v>42</v>
       </c>
       <c r="Z83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB83" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="17:28" x14ac:dyDescent="0.2">
@@ -2935,7 +2944,7 @@
         <v>44</v>
       </c>
       <c r="R84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S84">
         <v>11</v>
@@ -2944,7 +2953,7 @@
         <v>45</v>
       </c>
       <c r="U84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V84" t="s">
         <v>42</v>
@@ -2953,10 +2962,10 @@
         <v>134</v>
       </c>
       <c r="AA84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="17:28" x14ac:dyDescent="0.2">
@@ -2964,7 +2973,7 @@
         <v>44</v>
       </c>
       <c r="R85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S85">
         <v>11</v>
@@ -2973,7 +2982,7 @@
         <v>45</v>
       </c>
       <c r="U85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V85" t="s">
         <v>42</v>
@@ -2982,10 +2991,10 @@
         <v>135</v>
       </c>
       <c r="AA85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="17:28" x14ac:dyDescent="0.2">
@@ -2993,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S86">
         <v>11</v>
@@ -3002,7 +3011,7 @@
         <v>45</v>
       </c>
       <c r="U86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V86" t="s">
         <v>42</v>
@@ -3011,10 +3020,10 @@
         <v>136</v>
       </c>
       <c r="AA86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="17:28" x14ac:dyDescent="0.2">
@@ -3022,7 +3031,7 @@
         <v>44</v>
       </c>
       <c r="R87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S87">
         <v>11</v>
@@ -3031,7 +3040,7 @@
         <v>45</v>
       </c>
       <c r="U87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V87" t="s">
         <v>42</v>
@@ -3040,10 +3049,10 @@
         <v>137</v>
       </c>
       <c r="AA87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="17:28" x14ac:dyDescent="0.2">
@@ -3051,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="R88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S88">
         <v>11</v>
@@ -3060,7 +3069,7 @@
         <v>45</v>
       </c>
       <c r="U88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V88" t="s">
         <v>42</v>
@@ -3069,10 +3078,10 @@
         <v>138</v>
       </c>
       <c r="AA88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="17:28" x14ac:dyDescent="0.2">
@@ -3080,7 +3089,7 @@
         <v>44</v>
       </c>
       <c r="R89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S89">
         <v>11</v>
@@ -3089,7 +3098,7 @@
         <v>45</v>
       </c>
       <c r="U89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V89" t="s">
         <v>42</v>
@@ -3098,10 +3107,10 @@
         <v>139</v>
       </c>
       <c r="AA89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="17:28" x14ac:dyDescent="0.2">
@@ -3109,7 +3118,7 @@
         <v>44</v>
       </c>
       <c r="R90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S90">
         <v>11</v>
@@ -3118,7 +3127,7 @@
         <v>45</v>
       </c>
       <c r="U90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V90" t="s">
         <v>42</v>
@@ -3127,10 +3136,10 @@
         <v>140</v>
       </c>
       <c r="AA90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="17:28" x14ac:dyDescent="0.2">
@@ -3138,7 +3147,7 @@
         <v>44</v>
       </c>
       <c r="R91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S91">
         <v>11</v>
@@ -3147,7 +3156,7 @@
         <v>45</v>
       </c>
       <c r="U91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V91" t="s">
         <v>42</v>
@@ -3156,10 +3165,10 @@
         <v>141</v>
       </c>
       <c r="AA91">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="17:28" x14ac:dyDescent="0.2">
@@ -3167,7 +3176,7 @@
         <v>44</v>
       </c>
       <c r="R92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S92">
         <v>11</v>
@@ -3176,7 +3185,7 @@
         <v>45</v>
       </c>
       <c r="U92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V92" t="s">
         <v>42</v>
@@ -3185,10 +3194,10 @@
         <v>142</v>
       </c>
       <c r="AA92">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB92" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="17:28" x14ac:dyDescent="0.2">
@@ -3196,7 +3205,7 @@
         <v>44</v>
       </c>
       <c r="R93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S93">
         <v>11</v>
@@ -3205,19 +3214,19 @@
         <v>45</v>
       </c>
       <c r="U93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V93" t="s">
         <v>42</v>
       </c>
       <c r="Z93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA93">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB93" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="17:28" x14ac:dyDescent="0.2">
@@ -3225,7 +3234,7 @@
         <v>44</v>
       </c>
       <c r="R94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S94">
         <v>11</v>
@@ -3234,7 +3243,7 @@
         <v>45</v>
       </c>
       <c r="U94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V94" t="s">
         <v>42</v>
@@ -3243,10 +3252,10 @@
         <v>145</v>
       </c>
       <c r="AA94">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB94" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="17:28" x14ac:dyDescent="0.2">
@@ -3254,7 +3263,7 @@
         <v>44</v>
       </c>
       <c r="R95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S95">
         <v>11</v>
@@ -3263,7 +3272,7 @@
         <v>45</v>
       </c>
       <c r="U95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V95" t="s">
         <v>42</v>
@@ -3272,39 +3281,30 @@
         <v>146</v>
       </c>
       <c r="AA95">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q96" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="R96" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="S96">
-        <v>11</v>
-      </c>
-      <c r="T96" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="U96" t="s">
-        <v>123</v>
-      </c>
-      <c r="V96" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z96" t="s">
+        <v>56</v>
+      </c>
+      <c r="W96" t="s">
+        <v>92</v>
+      </c>
+      <c r="X96" t="s">
         <v>147</v>
-      </c>
-      <c r="AA96">
-        <v>18</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="97" spans="17:28" x14ac:dyDescent="0.2">
@@ -3321,10 +3321,10 @@
         <v>56</v>
       </c>
       <c r="W97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X97" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="17:28" x14ac:dyDescent="0.2">
@@ -3340,11 +3340,8 @@
       <c r="U98" t="s">
         <v>56</v>
       </c>
-      <c r="W98" t="s">
-        <v>95</v>
-      </c>
-      <c r="X98" t="s">
-        <v>58</v>
+      <c r="Y98" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="17:28" x14ac:dyDescent="0.2">
@@ -3360,8 +3357,14 @@
       <c r="U99" t="s">
         <v>56</v>
       </c>
-      <c r="Y99" t="s">
-        <v>149</v>
+      <c r="Z99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA99">
+        <v>1</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="17:28" x14ac:dyDescent="0.2">
@@ -3381,10 +3384,10 @@
         <v>8</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="17:28" x14ac:dyDescent="0.2">
@@ -3404,10 +3407,10 @@
         <v>8</v>
       </c>
       <c r="AA101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="17:28" x14ac:dyDescent="0.2">
@@ -3427,10 +3430,10 @@
         <v>8</v>
       </c>
       <c r="AA102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="17:28" x14ac:dyDescent="0.2">
@@ -3450,10 +3453,10 @@
         <v>8</v>
       </c>
       <c r="AA103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="17:28" x14ac:dyDescent="0.2">
@@ -3473,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="AA104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="17:28" x14ac:dyDescent="0.2">
@@ -3496,10 +3499,10 @@
         <v>8</v>
       </c>
       <c r="AA105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="17:28" x14ac:dyDescent="0.2">
@@ -3519,10 +3522,10 @@
         <v>8</v>
       </c>
       <c r="AA106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="17:28" x14ac:dyDescent="0.2">
@@ -3542,10 +3545,10 @@
         <v>8</v>
       </c>
       <c r="AA107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="17:28" x14ac:dyDescent="0.2">
@@ -3565,10 +3568,10 @@
         <v>8</v>
       </c>
       <c r="AA108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="17:28" x14ac:dyDescent="0.2">
@@ -3588,10 +3591,10 @@
         <v>8</v>
       </c>
       <c r="AA109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="17:28" x14ac:dyDescent="0.2">
@@ -3611,10 +3614,10 @@
         <v>8</v>
       </c>
       <c r="AA110">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="17:28" x14ac:dyDescent="0.2">
@@ -3634,10 +3637,10 @@
         <v>8</v>
       </c>
       <c r="AA111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="17:28" x14ac:dyDescent="0.2">
@@ -3657,10 +3660,10 @@
         <v>8</v>
       </c>
       <c r="AA112">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="17:28" x14ac:dyDescent="0.2">
@@ -3680,10 +3683,10 @@
         <v>8</v>
       </c>
       <c r="AA113">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="17:28" x14ac:dyDescent="0.2">
@@ -3703,10 +3706,10 @@
         <v>8</v>
       </c>
       <c r="AA114">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="17:28" x14ac:dyDescent="0.2">
@@ -3726,10 +3729,10 @@
         <v>8</v>
       </c>
       <c r="AA115">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="17:28" x14ac:dyDescent="0.2">
@@ -3749,10 +3752,10 @@
         <v>8</v>
       </c>
       <c r="AA116">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="17:28" x14ac:dyDescent="0.2">
@@ -3772,10 +3775,10 @@
         <v>8</v>
       </c>
       <c r="AA117">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="17:28" x14ac:dyDescent="0.2">
@@ -3795,415 +3798,400 @@
         <v>8</v>
       </c>
       <c r="AA118">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q119" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="R119" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S119">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U119" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA119">
-        <v>20</v>
-      </c>
-      <c r="AB119" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="V119" t="s">
+        <v>72</v>
+      </c>
+      <c r="W119" t="s">
+        <v>92</v>
+      </c>
+      <c r="X119" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q120" t="s">
+        <v>77</v>
+      </c>
+      <c r="R120" t="s">
         <v>78</v>
-      </c>
-      <c r="R120" t="s">
-        <v>79</v>
       </c>
       <c r="S120">
         <v>13</v>
       </c>
       <c r="U120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W120" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X120" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q121" t="s">
+        <v>77</v>
+      </c>
+      <c r="R121" t="s">
         <v>78</v>
-      </c>
-      <c r="R121" t="s">
-        <v>79</v>
       </c>
       <c r="S121">
         <v>13</v>
       </c>
       <c r="U121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W121" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="X121" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q122" t="s">
+        <v>77</v>
+      </c>
+      <c r="R122" t="s">
         <v>78</v>
-      </c>
-      <c r="R122" t="s">
-        <v>79</v>
       </c>
       <c r="S122">
         <v>13</v>
       </c>
       <c r="U122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X122" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q123" t="s">
+        <v>77</v>
+      </c>
+      <c r="R123" t="s">
         <v>78</v>
-      </c>
-      <c r="R123" t="s">
-        <v>79</v>
       </c>
       <c r="S123">
         <v>13</v>
       </c>
       <c r="U123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W123" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="X123" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q124" t="s">
+        <v>77</v>
+      </c>
+      <c r="R124" t="s">
         <v>78</v>
-      </c>
-      <c r="R124" t="s">
-        <v>79</v>
       </c>
       <c r="S124">
         <v>13</v>
       </c>
       <c r="U124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V124" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W124" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X124" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q125" t="s">
+        <v>77</v>
+      </c>
+      <c r="R125" t="s">
         <v>78</v>
-      </c>
-      <c r="R125" t="s">
-        <v>79</v>
       </c>
       <c r="S125">
         <v>13</v>
       </c>
       <c r="U125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V125" t="s">
+        <v>72</v>
+      </c>
+      <c r="W125" t="s">
         <v>73</v>
       </c>
-      <c r="W125" t="s">
-        <v>88</v>
-      </c>
       <c r="X125" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q126" t="s">
+        <v>77</v>
+      </c>
+      <c r="R126" t="s">
         <v>78</v>
-      </c>
-      <c r="R126" t="s">
-        <v>79</v>
       </c>
       <c r="S126">
         <v>13</v>
       </c>
       <c r="U126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W126" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="X126" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q127" t="s">
+        <v>77</v>
+      </c>
+      <c r="R127" t="s">
         <v>78</v>
-      </c>
-      <c r="R127" t="s">
-        <v>79</v>
       </c>
       <c r="S127">
         <v>13</v>
       </c>
       <c r="U127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V127" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W127" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="X127" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q128" t="s">
+        <v>77</v>
+      </c>
+      <c r="R128" t="s">
         <v>78</v>
-      </c>
-      <c r="R128" t="s">
-        <v>79</v>
       </c>
       <c r="S128">
         <v>13</v>
       </c>
       <c r="U128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V128" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W128" t="s">
         <v>80</v>
       </c>
       <c r="X128" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="17:35" x14ac:dyDescent="0.2">
       <c r="Q129" t="s">
+        <v>77</v>
+      </c>
+      <c r="R129" t="s">
         <v>78</v>
-      </c>
-      <c r="R129" t="s">
-        <v>79</v>
       </c>
       <c r="S129">
         <v>13</v>
       </c>
       <c r="U129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W129" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X129" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="17:35" x14ac:dyDescent="0.2">
       <c r="Q130" t="s">
+        <v>77</v>
+      </c>
+      <c r="R130" t="s">
         <v>78</v>
-      </c>
-      <c r="R130" t="s">
-        <v>79</v>
       </c>
       <c r="S130">
         <v>13</v>
       </c>
       <c r="U130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V130" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W130" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X130" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="17:35" x14ac:dyDescent="0.2">
       <c r="Q131" t="s">
+        <v>77</v>
+      </c>
+      <c r="R131" t="s">
         <v>78</v>
-      </c>
-      <c r="R131" t="s">
-        <v>79</v>
       </c>
       <c r="S131">
         <v>13</v>
       </c>
       <c r="U131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V131" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W131" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X131" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="17:35" x14ac:dyDescent="0.2">
       <c r="Q132" t="s">
+        <v>77</v>
+      </c>
+      <c r="R132" t="s">
         <v>78</v>
-      </c>
-      <c r="R132" t="s">
-        <v>79</v>
       </c>
       <c r="S132">
         <v>13</v>
       </c>
       <c r="U132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V132" t="s">
-        <v>73</v>
-      </c>
-      <c r="W132" t="s">
-        <v>91</v>
-      </c>
-      <c r="X132" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA132">
+        <v>1</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="17:35" x14ac:dyDescent="0.2">
       <c r="Q133" t="s">
+        <v>77</v>
+      </c>
+      <c r="R133" t="s">
         <v>78</v>
-      </c>
-      <c r="R133" t="s">
-        <v>79</v>
       </c>
       <c r="S133">
         <v>13</v>
       </c>
       <c r="U133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V133" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z133" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="17:35" x14ac:dyDescent="0.2">
       <c r="Q134" t="s">
+        <v>77</v>
+      </c>
+      <c r="R134" t="s">
         <v>78</v>
-      </c>
-      <c r="R134" t="s">
-        <v>79</v>
       </c>
       <c r="S134">
         <v>13</v>
       </c>
       <c r="U134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z134" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AA134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB134" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="Q135" t="s">
-        <v>78</v>
-      </c>
-      <c r="R135" t="s">
-        <v>79</v>
-      </c>
-      <c r="S135">
-        <v>13</v>
-      </c>
-      <c r="U135" t="s">
-        <v>77</v>
-      </c>
-      <c r="V135" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z135" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA135">
-        <v>3</v>
-      </c>
-      <c r="AB135" t="s">
+      <c r="AC135" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD135" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="136" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC136" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AD136" t="s">
         <v>156</v>
@@ -4211,7 +4199,7 @@
     </row>
     <row r="137" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC137" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AD137" t="s">
         <v>157</v>
@@ -4219,7 +4207,7 @@
     </row>
     <row r="138" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC138" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="AD138" t="s">
         <v>158</v>
@@ -4227,7 +4215,7 @@
     </row>
     <row r="139" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC139" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AD139" t="s">
         <v>159</v>
@@ -4235,18 +4223,27 @@
     </row>
     <row r="140" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC140" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AD140" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="141" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AC141" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD141" t="s">
+      <c r="AE141">
+        <v>1</v>
+      </c>
+      <c r="AF141" t="s">
         <v>161</v>
+      </c>
+      <c r="AG141">
+        <v>1</v>
+      </c>
+      <c r="AH141">
+        <v>2</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="17:35" x14ac:dyDescent="0.2">
@@ -4254,16 +4251,16 @@
         <v>1</v>
       </c>
       <c r="AF142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG142">
         <v>1</v>
       </c>
       <c r="AH142">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AI142" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="17:35" x14ac:dyDescent="0.2">
@@ -4271,16 +4268,16 @@
         <v>1</v>
       </c>
       <c r="AF143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG143">
         <v>1</v>
       </c>
       <c r="AH143">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AI143" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="17:35" x14ac:dyDescent="0.2">
@@ -4288,16 +4285,16 @@
         <v>1</v>
       </c>
       <c r="AF144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG144">
         <v>1</v>
       </c>
       <c r="AH144">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI144" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="31:35" x14ac:dyDescent="0.2">
@@ -4305,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="AF145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG145">
         <v>1</v>
@@ -4314,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="AI145" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="31:35" x14ac:dyDescent="0.2">
@@ -4322,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="AF146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG146">
         <v>1</v>
@@ -4331,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="AI146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="31:35" x14ac:dyDescent="0.2">
@@ -4339,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="AF147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG147">
         <v>1</v>
@@ -4348,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="AI147" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="31:35" x14ac:dyDescent="0.2">
@@ -4356,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="AF148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG148">
         <v>1</v>
@@ -4365,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="AI148" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="31:35" x14ac:dyDescent="0.2">
@@ -4373,50 +4370,50 @@
         <v>1</v>
       </c>
       <c r="AF149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG149">
         <v>1</v>
       </c>
       <c r="AH149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI149" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF150" t="s">
         <v>162</v>
       </c>
       <c r="AG150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI150" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF151" t="s">
         <v>163</v>
       </c>
       <c r="AG151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH151">
         <v>1</v>
       </c>
       <c r="AI151" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="31:35" x14ac:dyDescent="0.2">
@@ -4424,16 +4421,16 @@
         <v>3</v>
       </c>
       <c r="AF152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG152">
         <v>3</v>
       </c>
       <c r="AH152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI152" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="31:35" x14ac:dyDescent="0.2">
@@ -4441,50 +4438,50 @@
         <v>3</v>
       </c>
       <c r="AF153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG153">
         <v>3</v>
       </c>
       <c r="AH153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI153" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF154" t="s">
         <v>164</v>
       </c>
       <c r="AG154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI154" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF155" t="s">
         <v>165</v>
       </c>
       <c r="AG155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI155" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="31:35" x14ac:dyDescent="0.2">
@@ -4492,7 +4489,7 @@
         <v>5</v>
       </c>
       <c r="AF156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG156">
         <v>5</v>
@@ -4501,24 +4498,24 @@
         <v>1</v>
       </c>
       <c r="AI156" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF157" t="s">
         <v>166</v>
       </c>
       <c r="AG157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH157">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI157" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="31:35" x14ac:dyDescent="0.2">
@@ -4526,33 +4523,33 @@
         <v>6</v>
       </c>
       <c r="AF158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG158">
         <v>6</v>
       </c>
       <c r="AH158">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AI158" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF159" t="s">
         <v>167</v>
       </c>
       <c r="AG159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI159" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="31:35" x14ac:dyDescent="0.2">
@@ -4560,16 +4557,16 @@
         <v>7</v>
       </c>
       <c r="AF160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG160">
         <v>7</v>
       </c>
       <c r="AH160">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI160" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="31:35" x14ac:dyDescent="0.2">
@@ -4577,47 +4574,47 @@
         <v>7</v>
       </c>
       <c r="AF161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG161">
         <v>7</v>
       </c>
       <c r="AH161">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI161" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE162">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF162" t="s">
         <v>168</v>
       </c>
       <c r="AG162">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH162">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AI162" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE163">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF163" t="s">
         <v>169</v>
       </c>
       <c r="AG163">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI163" t="s">
         <v>27</v>
@@ -4628,47 +4625,47 @@
         <v>9</v>
       </c>
       <c r="AF164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG164">
         <v>9</v>
       </c>
       <c r="AH164">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AI164" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE165">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF165" t="s">
         <v>170</v>
       </c>
       <c r="AG165">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH165">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AI165" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE166">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF166" t="s">
         <v>171</v>
       </c>
       <c r="AG166">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI166" t="s">
         <v>33</v>
@@ -4676,16 +4673,16 @@
     </row>
     <row r="167" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE167">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF167" t="s">
         <v>172</v>
       </c>
       <c r="AG167">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI167" t="s">
         <v>33</v>
@@ -4693,19 +4690,19 @@
     </row>
     <row r="168" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE168">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF168" t="s">
         <v>173</v>
       </c>
       <c r="AG168">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI168" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="31:35" x14ac:dyDescent="0.2">
@@ -4713,33 +4710,33 @@
         <v>13</v>
       </c>
       <c r="AF169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG169">
         <v>13</v>
       </c>
       <c r="AH169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI169" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF170" t="s">
         <v>174</v>
       </c>
       <c r="AG170">
+        <v>14</v>
+      </c>
+      <c r="AH170">
+        <v>2</v>
+      </c>
+      <c r="AI170" t="s">
         <v>13</v>
-      </c>
-      <c r="AH170">
-        <v>4</v>
-      </c>
-      <c r="AI170" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="171" spans="31:35" x14ac:dyDescent="0.2">
@@ -4747,16 +4744,16 @@
         <v>14</v>
       </c>
       <c r="AF171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG171">
         <v>14</v>
       </c>
       <c r="AH171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI171" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="31:35" x14ac:dyDescent="0.2">
@@ -4764,33 +4761,33 @@
         <v>14</v>
       </c>
       <c r="AF172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG172">
         <v>14</v>
       </c>
       <c r="AH172">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI172" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE173">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF173" t="s">
         <v>175</v>
       </c>
       <c r="AG173">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="31:35" x14ac:dyDescent="0.2">
@@ -4798,7 +4795,7 @@
         <v>15</v>
       </c>
       <c r="AF174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG174">
         <v>15</v>
@@ -4807,24 +4804,24 @@
         <v>2</v>
       </c>
       <c r="AI174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE175">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF175" t="s">
         <v>176</v>
       </c>
       <c r="AG175">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI175" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="176" spans="31:35" x14ac:dyDescent="0.2">
@@ -4832,33 +4829,33 @@
         <v>16</v>
       </c>
       <c r="AF176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG176">
         <v>16</v>
       </c>
       <c r="AH176">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI176" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE177">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF177" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="AG177">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH177">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI177" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178" spans="31:35" x14ac:dyDescent="0.2">
@@ -4866,16 +4863,16 @@
         <v>17</v>
       </c>
       <c r="AF178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG178">
         <v>17</v>
       </c>
       <c r="AH178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI178" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="31:35" x14ac:dyDescent="0.2">
@@ -4883,16 +4880,16 @@
         <v>17</v>
       </c>
       <c r="AF179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG179">
         <v>17</v>
       </c>
       <c r="AH179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI179" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="31:35" x14ac:dyDescent="0.2">
@@ -4900,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="AF180" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG180">
         <v>17</v>
@@ -4909,7 +4906,7 @@
         <v>2</v>
       </c>
       <c r="AI180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="31:35" x14ac:dyDescent="0.2">
@@ -4917,16 +4914,16 @@
         <v>17</v>
       </c>
       <c r="AF181" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG181">
         <v>17</v>
       </c>
       <c r="AH181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI181" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="31:35" x14ac:dyDescent="0.2">
@@ -4934,13 +4931,13 @@
         <v>17</v>
       </c>
       <c r="AF182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG182">
         <v>17</v>
       </c>
       <c r="AH182">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI182" t="s">
         <v>60</v>
@@ -4951,7 +4948,7 @@
         <v>17</v>
       </c>
       <c r="AF183" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG183">
         <v>17</v>
@@ -4960,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="AI183" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="31:35" x14ac:dyDescent="0.2">
@@ -4968,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="AF184" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG184">
         <v>17</v>
@@ -4977,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="AI184" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="31:35" x14ac:dyDescent="0.2">
@@ -4985,7 +4982,7 @@
         <v>17</v>
       </c>
       <c r="AF185" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG185">
         <v>17</v>
@@ -4994,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="AI185" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="31:35" x14ac:dyDescent="0.2">
@@ -5002,7 +4999,7 @@
         <v>17</v>
       </c>
       <c r="AF186" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG186">
         <v>17</v>
@@ -5011,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="AI186" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="31:35" x14ac:dyDescent="0.2">
@@ -5019,7 +5016,7 @@
         <v>17</v>
       </c>
       <c r="AF187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG187">
         <v>17</v>
@@ -5028,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="AI187" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="31:35" x14ac:dyDescent="0.2">
@@ -5036,16 +5033,16 @@
         <v>17</v>
       </c>
       <c r="AF188" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG188">
         <v>17</v>
       </c>
       <c r="AH188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI188" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="31:35" x14ac:dyDescent="0.2">
@@ -5053,16 +5050,16 @@
         <v>17</v>
       </c>
       <c r="AF189" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG189">
         <v>17</v>
       </c>
       <c r="AH189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI189" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="31:35" x14ac:dyDescent="0.2">
@@ -5070,7 +5067,7 @@
         <v>17</v>
       </c>
       <c r="AF190" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG190">
         <v>17</v>
@@ -5079,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="AI190" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="31:35" x14ac:dyDescent="0.2">
@@ -5087,7 +5084,7 @@
         <v>17</v>
       </c>
       <c r="AF191" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG191">
         <v>17</v>
@@ -5096,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="AI191" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="192" spans="31:35" x14ac:dyDescent="0.2">
@@ -5104,7 +5101,7 @@
         <v>17</v>
       </c>
       <c r="AF192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG192">
         <v>17</v>
@@ -5113,24 +5110,24 @@
         <v>2</v>
       </c>
       <c r="AI192" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE193">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF193" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="AG193">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH193">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI193" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194" spans="31:35" x14ac:dyDescent="0.2">
@@ -5138,30 +5135,30 @@
         <v>18</v>
       </c>
       <c r="AF194" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG194">
         <v>18</v>
       </c>
       <c r="AH194">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI194" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE195">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF195" t="s">
         <v>178</v>
       </c>
       <c r="AG195">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI195" t="s">
         <v>41</v>
@@ -5169,19 +5166,19 @@
     </row>
     <row r="196" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE196">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF196" t="s">
         <v>179</v>
       </c>
       <c r="AG196">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH196">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI196" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197" spans="31:35" x14ac:dyDescent="0.2">
@@ -5189,33 +5186,33 @@
         <v>20</v>
       </c>
       <c r="AF197" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG197">
         <v>20</v>
       </c>
       <c r="AH197">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI197" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE198">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF198" t="s">
         <v>180</v>
       </c>
       <c r="AG198">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH198">
         <v>6</v>
       </c>
       <c r="AI198" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199" spans="31:35" x14ac:dyDescent="0.2">
@@ -5223,33 +5220,33 @@
         <v>21</v>
       </c>
       <c r="AF199" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG199">
         <v>21</v>
       </c>
       <c r="AH199">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI199" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE200">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF200" t="s">
         <v>181</v>
       </c>
       <c r="AG200">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI200" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201" spans="31:35" x14ac:dyDescent="0.2">
@@ -5257,33 +5254,33 @@
         <v>22</v>
       </c>
       <c r="AF201" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG201">
         <v>22</v>
       </c>
       <c r="AH201">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI201" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE202">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF202" t="s">
         <v>182</v>
       </c>
       <c r="AG202">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH202">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI202" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="31:35" x14ac:dyDescent="0.2">
@@ -5291,33 +5288,33 @@
         <v>23</v>
       </c>
       <c r="AF203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG203">
         <v>23</v>
       </c>
       <c r="AH203">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AI203" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE204">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF204" t="s">
         <v>183</v>
       </c>
       <c r="AG204">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH204">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI204" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="31:35" x14ac:dyDescent="0.2">
@@ -5325,33 +5322,33 @@
         <v>24</v>
       </c>
       <c r="AF205" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG205">
         <v>24</v>
       </c>
       <c r="AH205">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI205" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE206">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF206" t="s">
         <v>184</v>
       </c>
       <c r="AG206">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH206">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AI206" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207" spans="31:35" x14ac:dyDescent="0.2">
@@ -5359,30 +5356,30 @@
         <v>25</v>
       </c>
       <c r="AF207" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG207">
         <v>25</v>
       </c>
       <c r="AH207">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AI207" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE208">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF208" t="s">
         <v>185</v>
       </c>
       <c r="AG208">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH208">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI208" t="s">
         <v>41</v>
@@ -5393,33 +5390,33 @@
         <v>26</v>
       </c>
       <c r="AF209" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG209">
         <v>26</v>
       </c>
       <c r="AH209">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AI209" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE210">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF210" t="s">
         <v>186</v>
       </c>
       <c r="AG210">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH210">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AI210" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211" spans="31:35" x14ac:dyDescent="0.2">
@@ -5427,16 +5424,16 @@
         <v>27</v>
       </c>
       <c r="AF211" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG211">
         <v>27</v>
       </c>
       <c r="AH211">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AI211" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="31:35" x14ac:dyDescent="0.2">
@@ -5444,33 +5441,33 @@
         <v>27</v>
       </c>
       <c r="AF212" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG212">
         <v>27</v>
       </c>
       <c r="AH212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE213">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF213" t="s">
         <v>187</v>
       </c>
       <c r="AG213">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH213">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AI213" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="214" spans="31:35" x14ac:dyDescent="0.2">
@@ -5478,16 +5475,16 @@
         <v>28</v>
       </c>
       <c r="AF214" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG214">
         <v>28</v>
       </c>
       <c r="AH214">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AI214" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="215" spans="31:35" x14ac:dyDescent="0.2">
@@ -5495,7 +5492,7 @@
         <v>28</v>
       </c>
       <c r="AF215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG215">
         <v>28</v>
@@ -5504,24 +5501,24 @@
         <v>1</v>
       </c>
       <c r="AI215" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE216">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF216" t="s">
         <v>188</v>
       </c>
       <c r="AG216">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH216">
         <v>1</v>
       </c>
       <c r="AI216" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217" spans="31:35" x14ac:dyDescent="0.2">
@@ -5529,50 +5526,50 @@
         <v>29</v>
       </c>
       <c r="AF217" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG217">
         <v>29</v>
       </c>
       <c r="AH217">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AI217" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE218">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF218" t="s">
         <v>189</v>
       </c>
       <c r="AG218">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH218">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AI218" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE219">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF219" t="s">
         <v>190</v>
       </c>
       <c r="AG219">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH219">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AI219" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="220" spans="31:35" x14ac:dyDescent="0.2">
@@ -5580,13 +5577,13 @@
         <v>31</v>
       </c>
       <c r="AF220" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG220">
         <v>31</v>
       </c>
       <c r="AH220">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AI220" t="s">
         <v>54</v>
@@ -5597,13 +5594,13 @@
         <v>31</v>
       </c>
       <c r="AF221" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG221">
         <v>31</v>
       </c>
       <c r="AH221">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI221" t="s">
         <v>54</v>
@@ -5614,16 +5611,16 @@
         <v>31</v>
       </c>
       <c r="AF222" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG222">
         <v>31</v>
       </c>
       <c r="AH222">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AI222" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223" spans="31:35" x14ac:dyDescent="0.2">
@@ -5631,13 +5628,13 @@
         <v>31</v>
       </c>
       <c r="AF223" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG223">
         <v>31</v>
       </c>
       <c r="AH223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI223" t="s">
         <v>60</v>
@@ -5648,16 +5645,16 @@
         <v>31</v>
       </c>
       <c r="AF224" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG224">
         <v>31</v>
       </c>
       <c r="AH224">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AI224" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225" spans="31:35" x14ac:dyDescent="0.2">
@@ -5665,13 +5662,13 @@
         <v>31</v>
       </c>
       <c r="AF225" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG225">
         <v>31</v>
       </c>
       <c r="AH225">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI225" t="s">
         <v>54</v>
@@ -5682,13 +5679,13 @@
         <v>31</v>
       </c>
       <c r="AF226" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG226">
         <v>31</v>
       </c>
       <c r="AH226">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AI226" t="s">
         <v>54</v>
@@ -5699,13 +5696,13 @@
         <v>31</v>
       </c>
       <c r="AF227" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG227">
         <v>31</v>
       </c>
       <c r="AH227">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI227" t="s">
         <v>54</v>
@@ -5716,13 +5713,13 @@
         <v>31</v>
       </c>
       <c r="AF228" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG228">
         <v>31</v>
       </c>
       <c r="AH228">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI228" t="s">
         <v>54</v>
@@ -5733,13 +5730,13 @@
         <v>31</v>
       </c>
       <c r="AF229" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG229">
         <v>31</v>
       </c>
       <c r="AH229">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI229" t="s">
         <v>54</v>
@@ -5750,13 +5747,13 @@
         <v>31</v>
       </c>
       <c r="AF230" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG230">
         <v>31</v>
       </c>
       <c r="AH230">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI230" t="s">
         <v>54</v>
@@ -5764,36 +5761,36 @@
     </row>
     <row r="231" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE231">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF231" t="s">
         <v>191</v>
       </c>
       <c r="AG231">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH231">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AI231" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE232">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF232" t="s">
         <v>192</v>
       </c>
       <c r="AG232">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH232">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI232" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="233" spans="31:35" x14ac:dyDescent="0.2">
@@ -5801,16 +5798,16 @@
         <v>33</v>
       </c>
       <c r="AF233" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG233">
         <v>33</v>
       </c>
       <c r="AH233">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI233" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="31:35" x14ac:dyDescent="0.2">
@@ -5818,33 +5815,33 @@
         <v>33</v>
       </c>
       <c r="AF234" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG234">
         <v>33</v>
       </c>
       <c r="AH234">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI234" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE235">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF235" t="s">
         <v>193</v>
       </c>
       <c r="AG235">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI235" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236" spans="31:35" x14ac:dyDescent="0.2">
@@ -5852,16 +5849,16 @@
         <v>34</v>
       </c>
       <c r="AF236" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG236">
         <v>34</v>
       </c>
       <c r="AH236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI236" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="31:35" x14ac:dyDescent="0.2">
@@ -5869,16 +5866,16 @@
         <v>34</v>
       </c>
       <c r="AF237" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG237">
         <v>34</v>
       </c>
       <c r="AH237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI237" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="31:35" x14ac:dyDescent="0.2">
@@ -5886,7 +5883,7 @@
         <v>34</v>
       </c>
       <c r="AF238" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG238">
         <v>34</v>
@@ -5895,24 +5892,24 @@
         <v>1</v>
       </c>
       <c r="AI238" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="239" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE239">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF239" t="s">
         <v>194</v>
       </c>
       <c r="AG239">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH239">
         <v>1</v>
       </c>
       <c r="AI239" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="240" spans="31:35" x14ac:dyDescent="0.2">
@@ -5920,38 +5917,21 @@
         <v>35</v>
       </c>
       <c r="AF240" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG240">
         <v>35</v>
       </c>
       <c r="AH240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI240" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="241" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE241">
-        <v>35</v>
-      </c>
-      <c r="AF241" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG241">
-        <v>35</v>
-      </c>
-      <c r="AH241">
-        <v>3</v>
-      </c>
-      <c r="AI241" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT267">
-    <sortCondition ref="A1:A267"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT266">
+    <sortCondition ref="A1:A266"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MidiAnySync/midianysync_bom.xlsx
+++ b/MidiAnySync/midianysync_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiAnySync/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE007DC9-C894-A44E-B17E-A68AD545B8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87C6CA3-06A2-9F43-A770-64C82E498AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="-17460" windowWidth="28040" windowHeight="16260" xr2:uid="{BFF4FDEE-40B4-5B4F-A303-76B9208D6481}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="midianysync" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midianysync!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midianysync!$A$1:$E$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="231">
   <si>
     <t>D</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>* Connect a power source and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -935,11 +938,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -951,13 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -978,6 +972,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1013,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>149122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1358,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI226"/>
+  <dimension ref="A1:AI227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E55" sqref="A1:E55"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,13 +1431,13 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="Q2" t="s">
         <v>25</v>
       </c>
@@ -1475,19 +1481,19 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>190</v>
       </c>
       <c r="Q4" t="s">
@@ -1542,13 +1548,13 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="Q6" t="s">
         <v>25</v>
       </c>
@@ -1575,13 +1581,13 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
@@ -1636,13 +1642,13 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="Q9" t="s">
         <v>9</v>
       </c>
@@ -1666,17 +1672,17 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
@@ -1699,17 +1705,17 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="Q11" t="s">
@@ -1764,13 +1770,13 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="Q13" t="s">
         <v>9</v>
       </c>
@@ -1794,17 +1800,17 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
@@ -1827,17 +1833,17 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="Q15" t="s">
@@ -1866,17 +1872,17 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>104</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="Q16" t="s">
@@ -1902,35 +1908,35 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="19">
         <v>220</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="Q19" t="s">
         <v>9</v>
       </c>
@@ -1954,17 +1960,17 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
@@ -1990,17 +1996,17 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="Q21" t="s">
@@ -2023,17 +2029,17 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>2</v>
       </c>
       <c r="Q22" t="s">
@@ -2076,13 +2082,13 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="Q24" t="s">
         <v>9</v>
       </c>
@@ -2103,17 +2109,17 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="Q25" t="s">
@@ -2142,17 +2148,17 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>2</v>
       </c>
       <c r="Q26" t="s">
@@ -2204,13 +2210,13 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="Q28" t="s">
         <v>9</v>
       </c>
@@ -2231,17 +2237,17 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="Q29" t="s">
@@ -2293,13 +2299,13 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="Q31" t="s">
         <v>9</v>
       </c>
@@ -2323,17 +2329,17 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>2</v>
       </c>
       <c r="Q32" t="s">
@@ -2362,17 +2368,17 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <v>1</v>
       </c>
       <c r="Q33" t="s">
@@ -2401,17 +2407,17 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="Q34" t="s">
@@ -2437,17 +2443,17 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="16">
         <v>1</v>
       </c>
       <c r="Q35" t="s">
@@ -2473,17 +2479,17 @@
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="16">
         <v>1</v>
       </c>
       <c r="Q36" t="s">
@@ -2532,13 +2538,13 @@
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="Q38" t="s">
         <v>9</v>
       </c>
@@ -2559,17 +2565,17 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="Q39" t="s">
@@ -2592,13 +2598,13 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <v>1</v>
       </c>
       <c r="Q40" t="s">
@@ -2647,13 +2653,13 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="Q42" t="s">
         <v>9</v>
       </c>
@@ -2680,17 +2686,17 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="3">
         <v>1</v>
       </c>
       <c r="Q43" t="s">
@@ -2716,17 +2722,17 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="Q44" t="s">
@@ -2772,13 +2778,13 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
       <c r="Q46" t="s">
         <v>9</v>
       </c>
@@ -2805,8 +2811,8 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="8"/>
+      <c r="E47" s="9"/>
       <c r="Q47" t="s">
         <v>9</v>
       </c>
@@ -2833,13 +2839,13 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
       <c r="Q48" t="s">
         <v>4</v>
       </c>
@@ -2866,13 +2872,13 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="16"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="11"/>
       <c r="Q49" t="s">
         <v>4</v>
       </c>
@@ -2899,13 +2905,13 @@
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
       <c r="Q50" t="s">
         <v>4</v>
       </c>
@@ -2928,36 +2934,20 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:28" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="Q51" t="s">
-        <v>4</v>
-      </c>
-      <c r="R51" t="s">
-        <v>5</v>
-      </c>
-      <c r="S51">
-        <v>10</v>
-      </c>
-      <c r="T51" t="s">
-        <v>95</v>
-      </c>
-      <c r="U51" t="s">
-        <v>3</v>
-      </c>
-      <c r="V51" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="E52" s="12"/>
+      <c r="E52" s="9"/>
       <c r="Q52" t="s">
         <v>4</v>
       </c>
@@ -2976,19 +2966,13 @@
       <c r="V52" t="s">
         <v>2</v>
       </c>
-      <c r="Z52" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA52">
-        <v>1</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>99</v>
+      <c r="Y52" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="E53" s="12"/>
+      <c r="A53" s="8"/>
+      <c r="E53" s="9"/>
       <c r="Q53" t="s">
         <v>4</v>
       </c>
@@ -3008,21 +2992,18 @@
         <v>2</v>
       </c>
       <c r="Z53" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="AA53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB53" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="A54" s="12"/>
+      <c r="E54" s="9"/>
       <c r="Q54" t="s">
         <v>4</v>
       </c>
@@ -3042,16 +3023,21 @@
         <v>2</v>
       </c>
       <c r="Z54" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AA54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB54" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
       <c r="Q55" t="s">
         <v>4</v>
       </c>
@@ -3071,13 +3057,13 @@
         <v>2</v>
       </c>
       <c r="Z55" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="AA55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB55" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
@@ -3100,13 +3086,13 @@
         <v>2</v>
       </c>
       <c r="Z56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB56" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
@@ -3129,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="Z57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB57" t="s">
         <v>78</v>
@@ -3158,10 +3144,10 @@
         <v>2</v>
       </c>
       <c r="Z58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB58" t="s">
         <v>78</v>
@@ -3187,10 +3173,10 @@
         <v>2</v>
       </c>
       <c r="Z59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB59" t="s">
         <v>78</v>
@@ -3198,28 +3184,31 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q60" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="R60" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="S60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T60" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="U60" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="V60" t="s">
-        <v>35</v>
-      </c>
-      <c r="W60" t="s">
-        <v>75</v>
-      </c>
-      <c r="X60" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA60">
+        <v>8</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
@@ -3242,10 +3231,10 @@
         <v>35</v>
       </c>
       <c r="W61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X61" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
@@ -3267,8 +3256,11 @@
       <c r="V62" t="s">
         <v>35</v>
       </c>
-      <c r="Y62" t="s">
-        <v>106</v>
+      <c r="W62" t="s">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
@@ -3291,7 +3283,7 @@
         <v>35</v>
       </c>
       <c r="Y63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
@@ -3313,14 +3305,8 @@
       <c r="V64" t="s">
         <v>35</v>
       </c>
-      <c r="Z64" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA64">
-        <v>1</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>109</v>
+      <c r="Y64" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="17:28" x14ac:dyDescent="0.2">
@@ -3343,10 +3329,10 @@
         <v>35</v>
       </c>
       <c r="Z65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB65" t="s">
         <v>109</v>
@@ -3372,10 +3358,10 @@
         <v>35</v>
       </c>
       <c r="Z66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB66" t="s">
         <v>109</v>
@@ -3401,13 +3387,13 @@
         <v>35</v>
       </c>
       <c r="Z67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="17:28" x14ac:dyDescent="0.2">
@@ -3430,13 +3416,13 @@
         <v>35</v>
       </c>
       <c r="Z68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AA68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="17:28" x14ac:dyDescent="0.2">
@@ -3459,13 +3445,13 @@
         <v>35</v>
       </c>
       <c r="Z69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AA69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB69" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="17:28" x14ac:dyDescent="0.2">
@@ -3488,10 +3474,10 @@
         <v>35</v>
       </c>
       <c r="Z70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB70" t="s">
         <v>109</v>
@@ -3517,10 +3503,10 @@
         <v>35</v>
       </c>
       <c r="Z71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB71" t="s">
         <v>109</v>
@@ -3546,10 +3532,10 @@
         <v>35</v>
       </c>
       <c r="Z72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB72" t="s">
         <v>109</v>
@@ -3575,10 +3561,10 @@
         <v>35</v>
       </c>
       <c r="Z73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB73" t="s">
         <v>109</v>
@@ -3604,10 +3590,10 @@
         <v>35</v>
       </c>
       <c r="Z74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB74" t="s">
         <v>109</v>
@@ -3633,10 +3619,10 @@
         <v>35</v>
       </c>
       <c r="Z75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB75" t="s">
         <v>109</v>
@@ -3662,10 +3648,10 @@
         <v>35</v>
       </c>
       <c r="Z76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB76" t="s">
         <v>109</v>
@@ -3691,10 +3677,10 @@
         <v>35</v>
       </c>
       <c r="Z77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA77">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB77" t="s">
         <v>109</v>
@@ -3720,13 +3706,13 @@
         <v>35</v>
       </c>
       <c r="Z78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA78">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB78" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="17:28" x14ac:dyDescent="0.2">
@@ -3749,13 +3735,13 @@
         <v>35</v>
       </c>
       <c r="Z79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB79" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="17:28" x14ac:dyDescent="0.2">
@@ -3778,13 +3764,13 @@
         <v>35</v>
       </c>
       <c r="Z80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB80" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="17:28" x14ac:dyDescent="0.2">
@@ -3807,10 +3793,10 @@
         <v>35</v>
       </c>
       <c r="Z81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB81" t="s">
         <v>109</v>
@@ -3818,22 +3804,31 @@
     </row>
     <row r="82" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q82" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R82" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="S82">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="T82" t="s">
+        <v>37</v>
       </c>
       <c r="U82" t="s">
-        <v>45</v>
-      </c>
-      <c r="W82" t="s">
-        <v>75</v>
-      </c>
-      <c r="X82" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="V82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA82">
+        <v>18</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="17:28" x14ac:dyDescent="0.2">
@@ -3850,10 +3845,10 @@
         <v>45</v>
       </c>
       <c r="W83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X83" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="17:28" x14ac:dyDescent="0.2">
@@ -3869,8 +3864,11 @@
       <c r="U84" t="s">
         <v>45</v>
       </c>
-      <c r="Y84" t="s">
-        <v>131</v>
+      <c r="W84" t="s">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="17:28" x14ac:dyDescent="0.2">
@@ -3886,14 +3884,8 @@
       <c r="U85" t="s">
         <v>45</v>
       </c>
-      <c r="Z85" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA85">
-        <v>1</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>78</v>
+      <c r="Y85" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="17:28" x14ac:dyDescent="0.2">
@@ -3913,7 +3905,7 @@
         <v>7</v>
       </c>
       <c r="AA86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB86" t="s">
         <v>78</v>
@@ -3936,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="AA87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB87" t="s">
         <v>78</v>
@@ -3959,7 +3951,7 @@
         <v>7</v>
       </c>
       <c r="AA88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB88" t="s">
         <v>78</v>
@@ -3982,7 +3974,7 @@
         <v>7</v>
       </c>
       <c r="AA89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB89" t="s">
         <v>78</v>
@@ -4005,7 +3997,7 @@
         <v>7</v>
       </c>
       <c r="AA90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB90" t="s">
         <v>78</v>
@@ -4028,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="AA91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB91" t="s">
         <v>78</v>
@@ -4051,7 +4043,7 @@
         <v>7</v>
       </c>
       <c r="AA92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB92" t="s">
         <v>78</v>
@@ -4074,7 +4066,7 @@
         <v>7</v>
       </c>
       <c r="AA93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB93" t="s">
         <v>78</v>
@@ -4097,7 +4089,7 @@
         <v>7</v>
       </c>
       <c r="AA94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB94" t="s">
         <v>78</v>
@@ -4120,7 +4112,7 @@
         <v>7</v>
       </c>
       <c r="AA95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB95" t="s">
         <v>78</v>
@@ -4143,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="AA96">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB96" t="s">
         <v>78</v>
@@ -4166,7 +4158,7 @@
         <v>7</v>
       </c>
       <c r="AA97">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB97" t="s">
         <v>78</v>
@@ -4189,7 +4181,7 @@
         <v>7</v>
       </c>
       <c r="AA98">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB98" t="s">
         <v>78</v>
@@ -4212,7 +4204,7 @@
         <v>7</v>
       </c>
       <c r="AA99">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB99" t="s">
         <v>78</v>
@@ -4235,7 +4227,7 @@
         <v>7</v>
       </c>
       <c r="AA100">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB100" t="s">
         <v>78</v>
@@ -4258,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="AA101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB101" t="s">
         <v>78</v>
@@ -4281,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="AA102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB102" t="s">
         <v>78</v>
@@ -4304,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="AA103">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB103" t="s">
         <v>78</v>
@@ -4327,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="AA104">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB104" t="s">
         <v>78</v>
@@ -4335,25 +4327,25 @@
     </row>
     <row r="105" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q105" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R105" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="S105">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U105" t="s">
-        <v>59</v>
-      </c>
-      <c r="V105" t="s">
-        <v>56</v>
-      </c>
-      <c r="W105" t="s">
-        <v>75</v>
-      </c>
-      <c r="X105" t="s">
-        <v>76</v>
+        <v>45</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA105">
+        <v>20</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="17:28" x14ac:dyDescent="0.2">
@@ -4373,10 +4365,10 @@
         <v>56</v>
       </c>
       <c r="W106" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X106" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="17:28" x14ac:dyDescent="0.2">
@@ -4396,10 +4388,10 @@
         <v>56</v>
       </c>
       <c r="W107" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="X107" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="17:28" x14ac:dyDescent="0.2">
@@ -4419,10 +4411,10 @@
         <v>56</v>
       </c>
       <c r="W108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="X108" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="17:28" x14ac:dyDescent="0.2">
@@ -4442,10 +4434,10 @@
         <v>56</v>
       </c>
       <c r="W109" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="X109" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="17:28" x14ac:dyDescent="0.2">
@@ -4465,10 +4457,10 @@
         <v>56</v>
       </c>
       <c r="W110" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X110" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="17:28" x14ac:dyDescent="0.2">
@@ -4488,10 +4480,10 @@
         <v>56</v>
       </c>
       <c r="W111" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="X111" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="17:28" x14ac:dyDescent="0.2">
@@ -4511,10 +4503,10 @@
         <v>56</v>
       </c>
       <c r="W112" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="X112" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="17:35" x14ac:dyDescent="0.2">
@@ -4534,10 +4526,10 @@
         <v>56</v>
       </c>
       <c r="W113" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="X113" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="17:35" x14ac:dyDescent="0.2">
@@ -4557,10 +4549,10 @@
         <v>56</v>
       </c>
       <c r="W114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X114" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="17:35" x14ac:dyDescent="0.2">
@@ -4580,10 +4572,10 @@
         <v>56</v>
       </c>
       <c r="W115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X115" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="17:35" x14ac:dyDescent="0.2">
@@ -4603,10 +4595,10 @@
         <v>56</v>
       </c>
       <c r="W116" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X116" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="17:35" x14ac:dyDescent="0.2">
@@ -4626,10 +4618,10 @@
         <v>56</v>
       </c>
       <c r="W117" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X117" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="17:35" x14ac:dyDescent="0.2">
@@ -4648,14 +4640,11 @@
       <c r="V118" t="s">
         <v>56</v>
       </c>
-      <c r="Z118" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA118">
-        <v>1</v>
-      </c>
-      <c r="AB118" t="s">
-        <v>115</v>
+      <c r="W118" t="s">
+        <v>73</v>
+      </c>
+      <c r="X118" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="17:35" x14ac:dyDescent="0.2">
@@ -4675,10 +4664,10 @@
         <v>56</v>
       </c>
       <c r="Z119" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="AA119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB119" t="s">
         <v>115</v>
@@ -4701,78 +4690,87 @@
         <v>56</v>
       </c>
       <c r="Z120" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA120">
+        <v>2</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="17:35" x14ac:dyDescent="0.2">
+      <c r="Q121" t="s">
+        <v>60</v>
+      </c>
+      <c r="R121" t="s">
+        <v>61</v>
+      </c>
+      <c r="S121">
+        <v>13</v>
+      </c>
+      <c r="U121" t="s">
+        <v>59</v>
+      </c>
+      <c r="V121" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z121" t="s">
         <v>136</v>
       </c>
-      <c r="AA120">
+      <c r="AA121">
         <v>3</v>
       </c>
-      <c r="AB120" t="s">
+      <c r="AB121" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AC121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="122" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC122" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AD122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC123" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC124" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AD124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC125" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AD125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="17:35" x14ac:dyDescent="0.2">
       <c r="AC126" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="17:35" x14ac:dyDescent="0.2">
+      <c r="AC127" t="s">
         <v>60</v>
       </c>
-      <c r="AD126" t="s">
+      <c r="AD127" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AE127">
-        <v>1</v>
-      </c>
-      <c r="AF127" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG127">
-        <v>1</v>
-      </c>
-      <c r="AH127">
-        <v>2</v>
-      </c>
-      <c r="AI127" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="128" spans="17:35" x14ac:dyDescent="0.2">
@@ -4786,10 +4784,10 @@
         <v>1</v>
       </c>
       <c r="AH128">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AI128" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="31:35" x14ac:dyDescent="0.2">
@@ -4803,10 +4801,10 @@
         <v>1</v>
       </c>
       <c r="AH129">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AI129" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="31:35" x14ac:dyDescent="0.2">
@@ -4820,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="AH130">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI130" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="31:35" x14ac:dyDescent="0.2">
@@ -4840,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="AI131" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="31:35" x14ac:dyDescent="0.2">
@@ -4857,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="AI132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="31:35" x14ac:dyDescent="0.2">
@@ -4874,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="AI133" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="31:35" x14ac:dyDescent="0.2">
@@ -4891,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AI134" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="31:35" x14ac:dyDescent="0.2">
@@ -4905,44 +4903,44 @@
         <v>1</v>
       </c>
       <c r="AH135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI136" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH137">
         <v>1</v>
       </c>
       <c r="AI137" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="31:35" x14ac:dyDescent="0.2">
@@ -4956,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="AH138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI138" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="31:35" x14ac:dyDescent="0.2">
@@ -4973,44 +4971,44 @@
         <v>3</v>
       </c>
       <c r="AH139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI139" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI140" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI141" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="31:35" x14ac:dyDescent="0.2">
@@ -5027,24 +5025,24 @@
         <v>1</v>
       </c>
       <c r="AI142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH143">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI143" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="31:35" x14ac:dyDescent="0.2">
@@ -5058,27 +5056,27 @@
         <v>6</v>
       </c>
       <c r="AH144">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI144" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI145" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="31:35" x14ac:dyDescent="0.2">
@@ -5092,10 +5090,10 @@
         <v>7</v>
       </c>
       <c r="AH146">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AI146" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="31:35" x14ac:dyDescent="0.2">
@@ -5109,41 +5107,41 @@
         <v>7</v>
       </c>
       <c r="AH147">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AI147" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH148">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AI148" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE149">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG149">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI149" t="s">
         <v>22</v>
@@ -5160,41 +5158,41 @@
         <v>9</v>
       </c>
       <c r="AH150">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AI150" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE151">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG151">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH151">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AI151" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE152">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG152">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI152" t="s">
         <v>27</v>
@@ -5202,16 +5200,16 @@
     </row>
     <row r="153" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE153">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG153">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI153" t="s">
         <v>27</v>
@@ -5219,19 +5217,19 @@
     </row>
     <row r="154" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE154">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG154">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI154" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="31:35" x14ac:dyDescent="0.2">
@@ -5245,27 +5243,27 @@
         <v>13</v>
       </c>
       <c r="AH155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI155" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE156">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG156">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI156" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="31:35" x14ac:dyDescent="0.2">
@@ -5279,10 +5277,10 @@
         <v>14</v>
       </c>
       <c r="AH157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI157" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="31:35" x14ac:dyDescent="0.2">
@@ -5296,27 +5294,27 @@
         <v>14</v>
       </c>
       <c r="AH158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI158" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE159">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG159">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="31:35" x14ac:dyDescent="0.2">
@@ -5333,24 +5331,24 @@
         <v>2</v>
       </c>
       <c r="AI160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE161">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG161">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI161" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="31:35" x14ac:dyDescent="0.2">
@@ -5364,27 +5362,27 @@
         <v>16</v>
       </c>
       <c r="AH162">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI162" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE163">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF163" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AG163">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH163">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI163" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="31:35" x14ac:dyDescent="0.2">
@@ -5398,10 +5396,10 @@
         <v>17</v>
       </c>
       <c r="AH164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI164" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="31:35" x14ac:dyDescent="0.2">
@@ -5415,10 +5413,10 @@
         <v>17</v>
       </c>
       <c r="AH165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI165" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="31:35" x14ac:dyDescent="0.2">
@@ -5435,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="AI166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="31:35" x14ac:dyDescent="0.2">
@@ -5449,10 +5447,10 @@
         <v>17</v>
       </c>
       <c r="AH167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI167" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="31:35" x14ac:dyDescent="0.2">
@@ -5466,7 +5464,7 @@
         <v>17</v>
       </c>
       <c r="AH168">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI168" t="s">
         <v>48</v>
@@ -5486,7 +5484,7 @@
         <v>2</v>
       </c>
       <c r="AI169" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="31:35" x14ac:dyDescent="0.2">
@@ -5503,7 +5501,7 @@
         <v>2</v>
       </c>
       <c r="AI170" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="31:35" x14ac:dyDescent="0.2">
@@ -5520,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="AI171" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="31:35" x14ac:dyDescent="0.2">
@@ -5537,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="AI172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="31:35" x14ac:dyDescent="0.2">
@@ -5554,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="AI173" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="31:35" x14ac:dyDescent="0.2">
@@ -5568,10 +5566,10 @@
         <v>17</v>
       </c>
       <c r="AH174">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI174" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="31:35" x14ac:dyDescent="0.2">
@@ -5585,10 +5583,10 @@
         <v>17</v>
       </c>
       <c r="AH175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI175" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="31:35" x14ac:dyDescent="0.2">
@@ -5605,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="AI176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="31:35" x14ac:dyDescent="0.2">
@@ -5622,7 +5620,7 @@
         <v>2</v>
       </c>
       <c r="AI177" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="31:35" x14ac:dyDescent="0.2">
@@ -5639,24 +5637,24 @@
         <v>2</v>
       </c>
       <c r="AI178" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE179">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF179" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AG179">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH179">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI179" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="31:35" x14ac:dyDescent="0.2">
@@ -5670,24 +5668,24 @@
         <v>18</v>
       </c>
       <c r="AH180">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI180" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE181">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG181">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI181" t="s">
         <v>34</v>
@@ -5695,19 +5693,19 @@
     </row>
     <row r="182" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE182">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF182" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG182">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH182">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI182" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="31:35" x14ac:dyDescent="0.2">
@@ -5721,27 +5719,27 @@
         <v>20</v>
       </c>
       <c r="AH183">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI183" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="184" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE184">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG184">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH184">
         <v>6</v>
       </c>
       <c r="AI184" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="31:35" x14ac:dyDescent="0.2">
@@ -5755,27 +5753,27 @@
         <v>21</v>
       </c>
       <c r="AH185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI185" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE186">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF186" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG186">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH186">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI186" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187" spans="31:35" x14ac:dyDescent="0.2">
@@ -5789,27 +5787,27 @@
         <v>22</v>
       </c>
       <c r="AH187">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI187" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE188">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG188">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH188">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI188" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="31:35" x14ac:dyDescent="0.2">
@@ -5823,27 +5821,27 @@
         <v>23</v>
       </c>
       <c r="AH189">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AI189" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE190">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG190">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH190">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI190" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="31:35" x14ac:dyDescent="0.2">
@@ -5857,27 +5855,27 @@
         <v>24</v>
       </c>
       <c r="AH191">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI191" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="192" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE192">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF192" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG192">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH192">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI192" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193" spans="31:35" x14ac:dyDescent="0.2">
@@ -5891,24 +5889,24 @@
         <v>25</v>
       </c>
       <c r="AH193">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AI193" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="194" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE194">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF194" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG194">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI194" t="s">
         <v>34</v>
@@ -5925,27 +5923,27 @@
         <v>26</v>
       </c>
       <c r="AH195">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AI195" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE196">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF196" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG196">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH196">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AI196" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197" spans="31:35" x14ac:dyDescent="0.2">
@@ -5959,10 +5957,10 @@
         <v>27</v>
       </c>
       <c r="AH197">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AI197" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="31:35" x14ac:dyDescent="0.2">
@@ -5976,27 +5974,27 @@
         <v>27</v>
       </c>
       <c r="AH198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE199">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG199">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH199">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AI199" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200" spans="31:35" x14ac:dyDescent="0.2">
@@ -6010,10 +6008,10 @@
         <v>28</v>
       </c>
       <c r="AH200">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AI200" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201" spans="31:35" x14ac:dyDescent="0.2">
@@ -6030,24 +6028,24 @@
         <v>1</v>
       </c>
       <c r="AI201" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE202">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG202">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH202">
         <v>1</v>
       </c>
       <c r="AI202" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203" spans="31:35" x14ac:dyDescent="0.2">
@@ -6061,44 +6059,44 @@
         <v>29</v>
       </c>
       <c r="AH203">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AI203" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE204">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF204" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG204">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH204">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AI204" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE205">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF205" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG205">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AH205">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AI205" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="31:35" x14ac:dyDescent="0.2">
@@ -6112,7 +6110,7 @@
         <v>31</v>
       </c>
       <c r="AH206">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AI206" t="s">
         <v>44</v>
@@ -6129,7 +6127,7 @@
         <v>31</v>
       </c>
       <c r="AH207">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI207" t="s">
         <v>44</v>
@@ -6146,10 +6144,10 @@
         <v>31</v>
       </c>
       <c r="AH208">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AI208" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="31:35" x14ac:dyDescent="0.2">
@@ -6163,7 +6161,7 @@
         <v>31</v>
       </c>
       <c r="AH209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI209" t="s">
         <v>48</v>
@@ -6180,10 +6178,10 @@
         <v>31</v>
       </c>
       <c r="AH210">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AI210" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="31:35" x14ac:dyDescent="0.2">
@@ -6197,7 +6195,7 @@
         <v>31</v>
       </c>
       <c r="AH211">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI211" t="s">
         <v>44</v>
@@ -6214,7 +6212,7 @@
         <v>31</v>
       </c>
       <c r="AH212">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AI212" t="s">
         <v>44</v>
@@ -6231,7 +6229,7 @@
         <v>31</v>
       </c>
       <c r="AH213">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI213" t="s">
         <v>44</v>
@@ -6248,7 +6246,7 @@
         <v>31</v>
       </c>
       <c r="AH214">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI214" t="s">
         <v>44</v>
@@ -6265,7 +6263,7 @@
         <v>31</v>
       </c>
       <c r="AH215">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI215" t="s">
         <v>44</v>
@@ -6282,7 +6280,7 @@
         <v>31</v>
       </c>
       <c r="AH216">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI216" t="s">
         <v>44</v>
@@ -6290,36 +6288,36 @@
     </row>
     <row r="217" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE217">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF217" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG217">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH217">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AI217" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE218">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF218" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG218">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH218">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI218" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="31:35" x14ac:dyDescent="0.2">
@@ -6333,10 +6331,10 @@
         <v>33</v>
       </c>
       <c r="AH219">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI219" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220" spans="31:35" x14ac:dyDescent="0.2">
@@ -6350,27 +6348,27 @@
         <v>33</v>
       </c>
       <c r="AH220">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI220" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE221">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF221" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG221">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI221" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="31:35" x14ac:dyDescent="0.2">
@@ -6384,10 +6382,10 @@
         <v>34</v>
       </c>
       <c r="AH222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI222" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223" spans="31:35" x14ac:dyDescent="0.2">
@@ -6401,10 +6399,10 @@
         <v>34</v>
       </c>
       <c r="AH223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI223" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224" spans="31:35" x14ac:dyDescent="0.2">
@@ -6421,24 +6419,24 @@
         <v>1</v>
       </c>
       <c r="AI224" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="225" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE225">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF225" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG225">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH225">
         <v>1</v>
       </c>
       <c r="AI225" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="226" spans="31:35" x14ac:dyDescent="0.2">
@@ -6452,21 +6450,39 @@
         <v>35</v>
       </c>
       <c r="AH226">
+        <v>1</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE227">
+        <v>35</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG227">
+        <v>35</v>
+      </c>
+      <c r="AH227">
         <v>3</v>
       </c>
-      <c r="AI226" t="s">
+      <c r="AI227" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT252">
-    <sortCondition ref="A1:A252"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT253">
+    <sortCondition ref="A1:A253"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/MidiAnySync/midianysync_bom.xlsx
+++ b/MidiAnySync/midianysync_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiAnySync/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87C6CA3-06A2-9F43-A770-64C82E498AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90887D81-7EEE-E64E-B5E2-5E37BA3957E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="-17460" windowWidth="28040" windowHeight="16260" xr2:uid="{BFF4FDEE-40B4-5B4F-A303-76B9208D6481}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{BFF4FDEE-40B4-5B4F-A303-76B9208D6481}"/>
   </bookViews>
   <sheets>
     <sheet name="midianysync" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midianysync!$A$1:$E$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midianysync!$A$1:$E$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="232">
   <si>
     <t>D</t>
   </si>
@@ -722,10 +722,13 @@
     <t>Crystal oscillator, 2 pin</t>
   </si>
   <si>
-    <t>* Connect a power source and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
-  </si>
-  <si>
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -946,7 +949,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -972,18 +974,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,14 +1016,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>57639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>149122</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>301522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1364,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI227"/>
+  <dimension ref="A1:AI228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1431,13 +1440,13 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="Q2" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +1715,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1908,35 +1917,35 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>220</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="Q19" t="s">
         <v>9</v>
       </c>
@@ -2450,10 +2459,10 @@
       <c r="C35" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>1</v>
       </c>
       <c r="Q35" t="s">
@@ -2489,7 +2498,7 @@
       <c r="D36" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>1</v>
       </c>
       <c r="Q36" t="s">
@@ -2778,13 +2787,13 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
       <c r="Q46" t="s">
         <v>9</v>
       </c>
@@ -2811,74 +2820,52 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="Q47" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+    </row>
+    <row r="48" spans="1:28" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="E48" s="8"/>
+      <c r="Q48" t="s">
         <v>9</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R48" t="s">
         <v>10</v>
       </c>
-      <c r="S47">
+      <c r="S48">
         <v>9</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U48" t="s">
         <v>8</v>
       </c>
-      <c r="V47" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA47">
+      <c r="V48" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA48">
         <v>2</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
+    <row r="49" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
-      <c r="Q48" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48">
-        <v>10</v>
-      </c>
-      <c r="T48" t="s">
-        <v>95</v>
-      </c>
-      <c r="U48" t="s">
-        <v>3</v>
-      </c>
-      <c r="V48" t="s">
-        <v>2</v>
-      </c>
-      <c r="W48" t="s">
-        <v>75</v>
-      </c>
-      <c r="X48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="27"/>
       <c r="Q49" t="s">
         <v>4</v>
       </c>
@@ -2898,20 +2885,20 @@
         <v>2</v>
       </c>
       <c r="W49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="10"/>
       <c r="Q50" t="s">
         <v>4</v>
       </c>
@@ -2930,49 +2917,59 @@
       <c r="V50" t="s">
         <v>2</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="W50" t="s">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="27"/>
+      <c r="Q51" t="s">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s">
+        <v>5</v>
+      </c>
+      <c r="S51">
+        <v>10</v>
+      </c>
+      <c r="T51" t="s">
+        <v>95</v>
+      </c>
+      <c r="U51" t="s">
+        <v>3</v>
+      </c>
+      <c r="V51" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+    <row r="52" spans="1:28" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="Q52" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52">
-        <v>10</v>
-      </c>
-      <c r="T52" t="s">
-        <v>95</v>
-      </c>
-      <c r="U52" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="E53" s="8"/>
       <c r="Q53" t="s">
         <v>4</v>
       </c>
@@ -2991,19 +2988,13 @@
       <c r="V53" t="s">
         <v>2</v>
       </c>
-      <c r="Z53" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA53">
-        <v>1</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>99</v>
+      <c r="Y53" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="E54" s="9"/>
+      <c r="A54" s="7"/>
+      <c r="E54" s="8"/>
       <c r="Q54" t="s">
         <v>4</v>
       </c>
@@ -3023,21 +3014,18 @@
         <v>2</v>
       </c>
       <c r="Z54" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="AA54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB54" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
+      <c r="A55" s="11"/>
+      <c r="E55" s="8"/>
       <c r="Q55" t="s">
         <v>4</v>
       </c>
@@ -3057,16 +3045,21 @@
         <v>2</v>
       </c>
       <c r="Z55" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AA55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB55" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
       <c r="Q56" t="s">
         <v>4</v>
       </c>
@@ -3086,13 +3079,13 @@
         <v>2</v>
       </c>
       <c r="Z56" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="AA56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB56" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
@@ -3115,13 +3108,13 @@
         <v>2</v>
       </c>
       <c r="Z57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB57" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
@@ -3144,10 +3137,10 @@
         <v>2</v>
       </c>
       <c r="Z58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB58" t="s">
         <v>78</v>
@@ -3173,10 +3166,10 @@
         <v>2</v>
       </c>
       <c r="Z59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB59" t="s">
         <v>78</v>
@@ -3202,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="Z60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="s">
         <v>78</v>
@@ -3213,28 +3206,31 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q61" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="R61" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="S61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T61" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="U61" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="V61" t="s">
-        <v>35</v>
-      </c>
-      <c r="W61" t="s">
-        <v>75</v>
-      </c>
-      <c r="X61" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA61">
+        <v>8</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
@@ -3257,10 +3253,10 @@
         <v>35</v>
       </c>
       <c r="W62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X62" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
@@ -3282,8 +3278,11 @@
       <c r="V63" t="s">
         <v>35</v>
       </c>
-      <c r="Y63" t="s">
-        <v>106</v>
+      <c r="W63" t="s">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
@@ -3306,7 +3305,7 @@
         <v>35</v>
       </c>
       <c r="Y64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="17:28" x14ac:dyDescent="0.2">
@@ -3328,14 +3327,8 @@
       <c r="V65" t="s">
         <v>35</v>
       </c>
-      <c r="Z65" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA65">
-        <v>1</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>109</v>
+      <c r="Y65" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="17:28" x14ac:dyDescent="0.2">
@@ -3358,10 +3351,10 @@
         <v>35</v>
       </c>
       <c r="Z66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB66" t="s">
         <v>109</v>
@@ -3387,10 +3380,10 @@
         <v>35</v>
       </c>
       <c r="Z67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB67" t="s">
         <v>109</v>
@@ -3416,13 +3409,13 @@
         <v>35</v>
       </c>
       <c r="Z68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB68" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="17:28" x14ac:dyDescent="0.2">
@@ -3445,13 +3438,13 @@
         <v>35</v>
       </c>
       <c r="Z69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AA69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB69" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="17:28" x14ac:dyDescent="0.2">
@@ -3474,13 +3467,13 @@
         <v>35</v>
       </c>
       <c r="Z70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AA70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB70" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="17:28" x14ac:dyDescent="0.2">
@@ -3503,10 +3496,10 @@
         <v>35</v>
       </c>
       <c r="Z71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB71" t="s">
         <v>109</v>
@@ -3532,10 +3525,10 @@
         <v>35</v>
       </c>
       <c r="Z72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB72" t="s">
         <v>109</v>
@@ -3561,10 +3554,10 @@
         <v>35</v>
       </c>
       <c r="Z73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB73" t="s">
         <v>109</v>
@@ -3590,10 +3583,10 @@
         <v>35</v>
       </c>
       <c r="Z74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB74" t="s">
         <v>109</v>
@@ -3619,10 +3612,10 @@
         <v>35</v>
       </c>
       <c r="Z75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB75" t="s">
         <v>109</v>
@@ -3648,10 +3641,10 @@
         <v>35</v>
       </c>
       <c r="Z76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB76" t="s">
         <v>109</v>
@@ -3677,10 +3670,10 @@
         <v>35</v>
       </c>
       <c r="Z77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA77">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB77" t="s">
         <v>109</v>
@@ -3706,10 +3699,10 @@
         <v>35</v>
       </c>
       <c r="Z78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA78">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB78" t="s">
         <v>109</v>
@@ -3735,13 +3728,13 @@
         <v>35</v>
       </c>
       <c r="Z79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA79">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB79" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="17:28" x14ac:dyDescent="0.2">
@@ -3764,13 +3757,13 @@
         <v>35</v>
       </c>
       <c r="Z80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA80">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB80" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="17:28" x14ac:dyDescent="0.2">
@@ -3793,13 +3786,13 @@
         <v>35</v>
       </c>
       <c r="Z81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA81">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB81" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="17:28" x14ac:dyDescent="0.2">
@@ -3822,10 +3815,10 @@
         <v>35</v>
       </c>
       <c r="Z82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB82" t="s">
         <v>109</v>
@@ -3833,22 +3826,31 @@
     </row>
     <row r="83" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q83" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R83" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="S83">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="T83" t="s">
+        <v>37</v>
       </c>
       <c r="U83" t="s">
-        <v>45</v>
-      </c>
-      <c r="W83" t="s">
-        <v>75</v>
-      </c>
-      <c r="X83" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="V83" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA83">
+        <v>18</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="17:28" x14ac:dyDescent="0.2">
@@ -3865,10 +3867,10 @@
         <v>45</v>
       </c>
       <c r="W84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X84" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="17:28" x14ac:dyDescent="0.2">
@@ -3884,8 +3886,11 @@
       <c r="U85" t="s">
         <v>45</v>
       </c>
-      <c r="Y85" t="s">
-        <v>131</v>
+      <c r="W85" t="s">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="17:28" x14ac:dyDescent="0.2">
@@ -3901,14 +3906,8 @@
       <c r="U86" t="s">
         <v>45</v>
       </c>
-      <c r="Z86" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA86">
-        <v>1</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>78</v>
+      <c r="Y86" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="17:28" x14ac:dyDescent="0.2">
@@ -3928,7 +3927,7 @@
         <v>7</v>
       </c>
       <c r="AA87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB87" t="s">
         <v>78</v>
@@ -3951,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="AA88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB88" t="s">
         <v>78</v>
@@ -3974,7 +3973,7 @@
         <v>7</v>
       </c>
       <c r="AA89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB89" t="s">
         <v>78</v>
@@ -3997,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="AA90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB90" t="s">
         <v>78</v>
@@ -4020,7 +4019,7 @@
         <v>7</v>
       </c>
       <c r="AA91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB91" t="s">
         <v>78</v>
@@ -4043,7 +4042,7 @@
         <v>7</v>
       </c>
       <c r="AA92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB92" t="s">
         <v>78</v>
@@ -4066,7 +4065,7 @@
         <v>7</v>
       </c>
       <c r="AA93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB93" t="s">
         <v>78</v>
@@ -4089,7 +4088,7 @@
         <v>7</v>
       </c>
       <c r="AA94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB94" t="s">
         <v>78</v>
@@ -4112,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="AA95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB95" t="s">
         <v>78</v>
@@ -4135,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="AA96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB96" t="s">
         <v>78</v>
@@ -4158,7 +4157,7 @@
         <v>7</v>
       </c>
       <c r="AA97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB97" t="s">
         <v>78</v>
@@ -4181,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="AA98">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB98" t="s">
         <v>78</v>
@@ -4204,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="AA99">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB99" t="s">
         <v>78</v>
@@ -4227,7 +4226,7 @@
         <v>7</v>
       </c>
       <c r="AA100">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB100" t="s">
         <v>78</v>
@@ -4250,7 +4249,7 @@
         <v>7</v>
       </c>
       <c r="AA101">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB101" t="s">
         <v>78</v>
@@ -4273,7 +4272,7 @@
         <v>7</v>
       </c>
       <c r="AA102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB102" t="s">
         <v>78</v>
@@ -4296,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="AA103">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB103" t="s">
         <v>78</v>
@@ -4319,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="AA104">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB104" t="s">
         <v>78</v>
@@ -4342,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="AA105">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB105" t="s">
         <v>78</v>
@@ -4350,25 +4349,25 @@
     </row>
     <row r="106" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q106" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R106" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="S106">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U106" t="s">
-        <v>59</v>
-      </c>
-      <c r="V106" t="s">
-        <v>56</v>
-      </c>
-      <c r="W106" t="s">
-        <v>75</v>
-      </c>
-      <c r="X106" t="s">
-        <v>76</v>
+        <v>45</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA106">
+        <v>20</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="17:28" x14ac:dyDescent="0.2">
@@ -4388,10 +4387,10 @@
         <v>56</v>
       </c>
       <c r="W107" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X107" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="17:28" x14ac:dyDescent="0.2">
@@ -4411,10 +4410,10 @@
         <v>56</v>
       </c>
       <c r="W108" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="X108" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="17:28" x14ac:dyDescent="0.2">
@@ -4434,10 +4433,10 @@
         <v>56</v>
       </c>
       <c r="W109" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="X109" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="17:28" x14ac:dyDescent="0.2">
@@ -4457,10 +4456,10 @@
         <v>56</v>
       </c>
       <c r="W110" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="X110" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="17:28" x14ac:dyDescent="0.2">
@@ -4480,10 +4479,10 @@
         <v>56</v>
       </c>
       <c r="W111" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X111" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="17:28" x14ac:dyDescent="0.2">
@@ -4503,13 +4502,13 @@
         <v>56</v>
       </c>
       <c r="W112" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="X112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="17:35" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q113" t="s">
         <v>60</v>
       </c>
@@ -4526,13 +4525,13 @@
         <v>56</v>
       </c>
       <c r="W113" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="X113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="17:35" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q114" t="s">
         <v>60</v>
       </c>
@@ -4549,13 +4548,13 @@
         <v>56</v>
       </c>
       <c r="W114" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="X114" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="115" spans="17:35" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q115" t="s">
         <v>60</v>
       </c>
@@ -4572,13 +4571,13 @@
         <v>56</v>
       </c>
       <c r="W115" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X115" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="17:35" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q116" t="s">
         <v>60</v>
       </c>
@@ -4595,13 +4594,13 @@
         <v>56</v>
       </c>
       <c r="W116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X116" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" spans="17:35" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q117" t="s">
         <v>60</v>
       </c>
@@ -4618,13 +4617,13 @@
         <v>56</v>
       </c>
       <c r="W117" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X117" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="118" spans="17:35" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q118" t="s">
         <v>60</v>
       </c>
@@ -4641,13 +4640,13 @@
         <v>56</v>
       </c>
       <c r="W118" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X118" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="119" spans="17:35" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q119" t="s">
         <v>60</v>
       </c>
@@ -4663,17 +4662,14 @@
       <c r="V119" t="s">
         <v>56</v>
       </c>
-      <c r="Z119" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA119">
-        <v>1</v>
-      </c>
-      <c r="AB119" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="17:35" x14ac:dyDescent="0.2">
+      <c r="W119" t="s">
+        <v>73</v>
+      </c>
+      <c r="X119" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q120" t="s">
         <v>60</v>
       </c>
@@ -4690,16 +4686,16 @@
         <v>56</v>
       </c>
       <c r="Z120" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="AA120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB120" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="17:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="17:30" x14ac:dyDescent="0.2">
       <c r="Q121" t="s">
         <v>60</v>
       </c>
@@ -4716,78 +4712,87 @@
         <v>56</v>
       </c>
       <c r="Z121" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA121">
+        <v>2</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="Q122" t="s">
+        <v>60</v>
+      </c>
+      <c r="R122" t="s">
+        <v>61</v>
+      </c>
+      <c r="S122">
+        <v>13</v>
+      </c>
+      <c r="U122" t="s">
+        <v>59</v>
+      </c>
+      <c r="V122" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z122" t="s">
         <v>136</v>
       </c>
-      <c r="AA121">
+      <c r="AA122">
         <v>3</v>
       </c>
-      <c r="AB121" t="s">
+      <c r="AB122" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AC122" t="s">
+    <row r="123" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AC123" t="s">
         <v>25</v>
       </c>
-      <c r="AD122" t="s">
+      <c r="AD123" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AC123" t="s">
+    <row r="124" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AC124" t="s">
         <v>9</v>
       </c>
-      <c r="AD123" t="s">
+      <c r="AD124" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AC124" t="s">
+    <row r="125" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AC125" t="s">
         <v>4</v>
       </c>
-      <c r="AD124" t="s">
+      <c r="AD125" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AC125" t="s">
+    <row r="126" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AC126" t="s">
         <v>36</v>
       </c>
-      <c r="AD125" t="s">
+      <c r="AD126" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AC126" t="s">
+    <row r="127" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AC127" t="s">
         <v>46</v>
       </c>
-      <c r="AD126" t="s">
+      <c r="AD127" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AC127" t="s">
+    <row r="128" spans="17:30" x14ac:dyDescent="0.2">
+      <c r="AC128" t="s">
         <v>60</v>
       </c>
-      <c r="AD127" t="s">
+      <c r="AD128" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="17:35" x14ac:dyDescent="0.2">
-      <c r="AE128">
-        <v>1</v>
-      </c>
-      <c r="AF128" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG128">
-        <v>1</v>
-      </c>
-      <c r="AH128">
-        <v>2</v>
-      </c>
-      <c r="AI128" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="129" spans="31:35" x14ac:dyDescent="0.2">
@@ -4801,10 +4806,10 @@
         <v>1</v>
       </c>
       <c r="AH129">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AI129" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="31:35" x14ac:dyDescent="0.2">
@@ -4818,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="AH130">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AI130" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="31:35" x14ac:dyDescent="0.2">
@@ -4835,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="AH131">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI131" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="31:35" x14ac:dyDescent="0.2">
@@ -4855,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AI132" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="31:35" x14ac:dyDescent="0.2">
@@ -4872,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="AI133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="31:35" x14ac:dyDescent="0.2">
@@ -4889,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="AI134" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="31:35" x14ac:dyDescent="0.2">
@@ -4906,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="AI135" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="31:35" x14ac:dyDescent="0.2">
@@ -4920,44 +4925,44 @@
         <v>1</v>
       </c>
       <c r="AH136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI136" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI137" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH138">
         <v>1</v>
       </c>
       <c r="AI138" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="31:35" x14ac:dyDescent="0.2">
@@ -4971,10 +4976,10 @@
         <v>3</v>
       </c>
       <c r="AH139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI139" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="31:35" x14ac:dyDescent="0.2">
@@ -4988,44 +4993,44 @@
         <v>3</v>
       </c>
       <c r="AH140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI140" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI141" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI142" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="31:35" x14ac:dyDescent="0.2">
@@ -5042,24 +5047,24 @@
         <v>1</v>
       </c>
       <c r="AI143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH144">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI144" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="31:35" x14ac:dyDescent="0.2">
@@ -5073,27 +5078,27 @@
         <v>6</v>
       </c>
       <c r="AH145">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI145" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI146" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="31:35" x14ac:dyDescent="0.2">
@@ -5107,10 +5112,10 @@
         <v>7</v>
       </c>
       <c r="AH147">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AI147" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="31:35" x14ac:dyDescent="0.2">
@@ -5124,41 +5129,41 @@
         <v>7</v>
       </c>
       <c r="AH148">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AI148" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH149">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AI149" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE150">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG150">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI150" t="s">
         <v>22</v>
@@ -5175,41 +5180,41 @@
         <v>9</v>
       </c>
       <c r="AH151">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AI151" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE152">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG152">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH152">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AI152" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE153">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG153">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI153" t="s">
         <v>27</v>
@@ -5217,16 +5222,16 @@
     </row>
     <row r="154" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE154">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG154">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI154" t="s">
         <v>27</v>
@@ -5234,19 +5239,19 @@
     </row>
     <row r="155" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE155">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG155">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI155" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="31:35" x14ac:dyDescent="0.2">
@@ -5260,27 +5265,27 @@
         <v>13</v>
       </c>
       <c r="AH156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI156" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE157">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG157">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI157" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="31:35" x14ac:dyDescent="0.2">
@@ -5294,10 +5299,10 @@
         <v>14</v>
       </c>
       <c r="AH158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI158" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="31:35" x14ac:dyDescent="0.2">
@@ -5311,27 +5316,27 @@
         <v>14</v>
       </c>
       <c r="AH159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI159" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE160">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG160">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="31:35" x14ac:dyDescent="0.2">
@@ -5348,24 +5353,24 @@
         <v>2</v>
       </c>
       <c r="AI161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE162">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG162">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI162" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="31:35" x14ac:dyDescent="0.2">
@@ -5379,27 +5384,27 @@
         <v>16</v>
       </c>
       <c r="AH163">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI163" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE164">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF164" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AG164">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH164">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI164" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="31:35" x14ac:dyDescent="0.2">
@@ -5413,10 +5418,10 @@
         <v>17</v>
       </c>
       <c r="AH165">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI165" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" spans="31:35" x14ac:dyDescent="0.2">
@@ -5430,10 +5435,10 @@
         <v>17</v>
       </c>
       <c r="AH166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI166" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="31:35" x14ac:dyDescent="0.2">
@@ -5450,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="AI167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="31:35" x14ac:dyDescent="0.2">
@@ -5464,10 +5469,10 @@
         <v>17</v>
       </c>
       <c r="AH168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI168" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="31:35" x14ac:dyDescent="0.2">
@@ -5481,7 +5486,7 @@
         <v>17</v>
       </c>
       <c r="AH169">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI169" t="s">
         <v>48</v>
@@ -5501,7 +5506,7 @@
         <v>2</v>
       </c>
       <c r="AI170" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="31:35" x14ac:dyDescent="0.2">
@@ -5518,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="AI171" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="31:35" x14ac:dyDescent="0.2">
@@ -5535,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="AI172" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="31:35" x14ac:dyDescent="0.2">
@@ -5552,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="AI173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="31:35" x14ac:dyDescent="0.2">
@@ -5569,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="AI174" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="31:35" x14ac:dyDescent="0.2">
@@ -5583,10 +5588,10 @@
         <v>17</v>
       </c>
       <c r="AH175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI175" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="31:35" x14ac:dyDescent="0.2">
@@ -5600,10 +5605,10 @@
         <v>17</v>
       </c>
       <c r="AH176">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI176" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="31:35" x14ac:dyDescent="0.2">
@@ -5620,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="AI177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="31:35" x14ac:dyDescent="0.2">
@@ -5637,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="AI178" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="31:35" x14ac:dyDescent="0.2">
@@ -5654,24 +5659,24 @@
         <v>2</v>
       </c>
       <c r="AI179" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE180">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF180" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AG180">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH180">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI180" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181" spans="31:35" x14ac:dyDescent="0.2">
@@ -5685,24 +5690,24 @@
         <v>18</v>
       </c>
       <c r="AH181">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI181" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE182">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG182">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI182" t="s">
         <v>34</v>
@@ -5710,19 +5715,19 @@
     </row>
     <row r="183" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE183">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG183">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH183">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI183" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184" spans="31:35" x14ac:dyDescent="0.2">
@@ -5736,27 +5741,27 @@
         <v>20</v>
       </c>
       <c r="AH184">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI184" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE185">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG185">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH185">
         <v>6</v>
       </c>
       <c r="AI185" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="31:35" x14ac:dyDescent="0.2">
@@ -5770,27 +5775,27 @@
         <v>21</v>
       </c>
       <c r="AH186">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI186" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE187">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG187">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH187">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI187" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="31:35" x14ac:dyDescent="0.2">
@@ -5804,27 +5809,27 @@
         <v>22</v>
       </c>
       <c r="AH188">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI188" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE189">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF189" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG189">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH189">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI189" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="31:35" x14ac:dyDescent="0.2">
@@ -5838,27 +5843,27 @@
         <v>23</v>
       </c>
       <c r="AH190">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AI190" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE191">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF191" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG191">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH191">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI191" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="31:35" x14ac:dyDescent="0.2">
@@ -5872,27 +5877,27 @@
         <v>24</v>
       </c>
       <c r="AH192">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI192" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="193" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE193">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF193" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG193">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH193">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI193" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194" spans="31:35" x14ac:dyDescent="0.2">
@@ -5906,24 +5911,24 @@
         <v>25</v>
       </c>
       <c r="AH194">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AI194" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE195">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF195" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG195">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH195">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI195" t="s">
         <v>34</v>
@@ -5940,27 +5945,27 @@
         <v>26</v>
       </c>
       <c r="AH196">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AI196" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE197">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF197" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG197">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH197">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AI197" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198" spans="31:35" x14ac:dyDescent="0.2">
@@ -5974,10 +5979,10 @@
         <v>27</v>
       </c>
       <c r="AH198">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AI198" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="31:35" x14ac:dyDescent="0.2">
@@ -5991,27 +5996,27 @@
         <v>27</v>
       </c>
       <c r="AH199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="200" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE200">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF200" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG200">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH200">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AI200" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201" spans="31:35" x14ac:dyDescent="0.2">
@@ -6025,10 +6030,10 @@
         <v>28</v>
       </c>
       <c r="AH201">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AI201" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="31:35" x14ac:dyDescent="0.2">
@@ -6045,24 +6050,24 @@
         <v>1</v>
       </c>
       <c r="AI202" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="203" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE203">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF203" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG203">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH203">
         <v>1</v>
       </c>
       <c r="AI203" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204" spans="31:35" x14ac:dyDescent="0.2">
@@ -6076,44 +6081,44 @@
         <v>29</v>
       </c>
       <c r="AH204">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AI204" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE205">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF205" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG205">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH205">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AI205" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE206">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG206">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AH206">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AI206" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="31:35" x14ac:dyDescent="0.2">
@@ -6127,7 +6132,7 @@
         <v>31</v>
       </c>
       <c r="AH207">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AI207" t="s">
         <v>44</v>
@@ -6144,7 +6149,7 @@
         <v>31</v>
       </c>
       <c r="AH208">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI208" t="s">
         <v>44</v>
@@ -6161,10 +6166,10 @@
         <v>31</v>
       </c>
       <c r="AH209">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AI209" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="31:35" x14ac:dyDescent="0.2">
@@ -6178,7 +6183,7 @@
         <v>31</v>
       </c>
       <c r="AH210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI210" t="s">
         <v>48</v>
@@ -6195,10 +6200,10 @@
         <v>31</v>
       </c>
       <c r="AH211">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AI211" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="31:35" x14ac:dyDescent="0.2">
@@ -6212,7 +6217,7 @@
         <v>31</v>
       </c>
       <c r="AH212">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI212" t="s">
         <v>44</v>
@@ -6229,7 +6234,7 @@
         <v>31</v>
       </c>
       <c r="AH213">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AI213" t="s">
         <v>44</v>
@@ -6246,7 +6251,7 @@
         <v>31</v>
       </c>
       <c r="AH214">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI214" t="s">
         <v>44</v>
@@ -6263,7 +6268,7 @@
         <v>31</v>
       </c>
       <c r="AH215">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI215" t="s">
         <v>44</v>
@@ -6280,7 +6285,7 @@
         <v>31</v>
       </c>
       <c r="AH216">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI216" t="s">
         <v>44</v>
@@ -6297,7 +6302,7 @@
         <v>31</v>
       </c>
       <c r="AH217">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI217" t="s">
         <v>44</v>
@@ -6305,36 +6310,36 @@
     </row>
     <row r="218" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE218">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF218" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG218">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH218">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AI218" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE219">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF219" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG219">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH219">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI219" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="220" spans="31:35" x14ac:dyDescent="0.2">
@@ -6348,10 +6353,10 @@
         <v>33</v>
       </c>
       <c r="AH220">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI220" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221" spans="31:35" x14ac:dyDescent="0.2">
@@ -6365,27 +6370,27 @@
         <v>33</v>
       </c>
       <c r="AH221">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI221" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE222">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF222" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG222">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI222" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="31:35" x14ac:dyDescent="0.2">
@@ -6399,10 +6404,10 @@
         <v>34</v>
       </c>
       <c r="AH223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI223" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="31:35" x14ac:dyDescent="0.2">
@@ -6416,10 +6421,10 @@
         <v>34</v>
       </c>
       <c r="AH224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI224" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225" spans="31:35" x14ac:dyDescent="0.2">
@@ -6436,24 +6441,24 @@
         <v>1</v>
       </c>
       <c r="AI225" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE226">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF226" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG226">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH226">
         <v>1</v>
       </c>
       <c r="AI226" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="227" spans="31:35" x14ac:dyDescent="0.2">
@@ -6467,25 +6472,44 @@
         <v>35</v>
       </c>
       <c r="AH227">
+        <v>1</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="228" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE228">
+        <v>35</v>
+      </c>
+      <c r="AF228" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG228">
+        <v>35</v>
+      </c>
+      <c r="AH228">
         <v>3</v>
       </c>
-      <c r="AI227" t="s">
+      <c r="AI228" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT253">
-    <sortCondition ref="A1:A253"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT254">
+    <sortCondition ref="A1:A254"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A53:C53"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A48:C48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MidiAnySync/midianysync_bom.xlsx
+++ b/MidiAnySync/midianysync_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiAnySync/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90887D81-7EEE-E64E-B5E2-5E37BA3957E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023D9F4-62CE-4946-A9B7-3F3A8AE114C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{BFF4FDEE-40B4-5B4F-A303-76B9208D6481}"/>
   </bookViews>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
   <si>
-    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -951,7 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -974,6 +973,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -983,16 +986,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1376,7 +1377,7 @@
   <dimension ref="A1:AI228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:C48"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1440,13 +1441,13 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="Q2" t="s">
         <v>25</v>
       </c>
@@ -1715,7 +1716,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1917,35 +1918,35 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>220</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="Q19" t="s">
         <v>9</v>
       </c>
@@ -2459,10 +2460,10 @@
       <c r="C35" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>1</v>
       </c>
       <c r="Q35" t="s">
@@ -2498,7 +2499,7 @@
       <c r="D36" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>1</v>
       </c>
       <c r="Q36" t="s">
@@ -2787,7 +2788,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="24" t="s">
         <v>216</v>
       </c>
       <c r="B46" s="5"/>
@@ -2820,19 +2821,19 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:28" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="E48" s="7"/>
       <c r="Q48" t="s">
         <v>9</v>
       </c>
@@ -2859,13 +2860,13 @@
       </c>
     </row>
     <row r="49" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
       <c r="Q49" t="s">
         <v>4</v>
       </c>
@@ -2892,13 +2893,13 @@
       </c>
     </row>
     <row r="50" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="10"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="9"/>
       <c r="Q50" t="s">
         <v>4</v>
       </c>
@@ -2925,13 +2926,13 @@
       </c>
     </row>
     <row r="51" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="27"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
       <c r="Q51" t="s">
         <v>4</v>
       </c>
@@ -2955,21 +2956,21 @@
       </c>
     </row>
     <row r="52" spans="1:28" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="E53" s="7"/>
       <c r="Q53" t="s">
         <v>4</v>
       </c>
@@ -2992,9 +2993,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="E54" s="8"/>
+    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="E54" s="7"/>
       <c r="Q54" t="s">
         <v>4</v>
       </c>
@@ -3024,8 +3027,8 @@
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="10"/>
+      <c r="E55" s="7"/>
       <c r="Q55" t="s">
         <v>4</v>
       </c>
@@ -3055,11 +3058,11 @@
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
       <c r="Q56" t="s">
         <v>4</v>
       </c>
@@ -6500,13 +6503,13 @@
     <sortCondition ref="A1:A254"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A53:C53"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
